--- a/Item bank from DigiArvi 2025 - Final.xlsx
+++ b/Item bank from DigiArvi 2025 - Final.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdaadh\Desktop\Item bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFF1CE-0405-47B0-8026-FB4290F99DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA0F6B4-5860-4AAF-B91E-DEEB1E692E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E6548F41-5644-4F5F-8D9E-38C4DDB10409}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6548F41-5644-4F5F-8D9E-38C4DDB10409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="993">
   <si>
     <t>label</t>
   </si>
@@ -2931,9 +2930,6 @@
     <t xml:space="preserve">S4: Functions, </t>
   </si>
   <si>
-    <t xml:space="preserve">S5: Geometry and Measurement, and </t>
-  </si>
-  <si>
     <t>S6: Data Handling, Statistics, and Probability</t>
   </si>
   <si>
@@ -3028,6 +3024,9 @@
   </si>
   <si>
     <t>A (IRT)</t>
+  </si>
+  <si>
+    <t>S5: Geometry and Measurement</t>
   </si>
 </sst>
 </file>
@@ -3473,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D8EB27-DBD6-457E-8C41-DC95B8D34093}">
   <dimension ref="A1:BL467"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ435" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH3" sqref="BH3:BL467"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3693,7 +3692,7 @@
     </row>
     <row r="3" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -3702,7 +3701,7 @@
         <v>923</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -3726,43 +3725,43 @@
         <v>959</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>971</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>972</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>4</v>
@@ -3831,58 +3830,58 @@
         <v>946</v>
       </c>
       <c r="AU3" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="AV3" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BH3" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.35">
@@ -56380,7924 +56379,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8C48FD-5CFD-4056-B883-4A2E6F6AEA01}">
-  <dimension ref="A1:E465"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>0.20269115815691158</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.39969530925695312</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.39065919468659194</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.26520049813200497</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>0.21273474470734746</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.38921751764217521</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.38102573682025737</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.30751805728518056</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>0.17727978414279785</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.45063802407638026</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.44148941469489417</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.21008592777085924</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>0.25503237858032379</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.39205188875051888</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.38301120797011207</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.37651515151515147</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>0.26380489829804898</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.43774346201743458</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.42830053964300541</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.31528601079286012</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>0.28448318804483191</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.51196720630967218</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.50182440846824417</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.31380157741801579</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>0.28824159402241595</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.42506309672063103</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.41512992943129928</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.4062822748028227</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>0.28065338314653387</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.36409921129099204</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.35501867995018682</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.45282357824823571</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>0.29633208800332089</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.42324283935242846</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.41349232046492318</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.41282980489829801</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>0.27236239103362392</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.33435450394354504</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.3258879202988792</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.48324491490244914</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>0.38051961770623738</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.55847786720321924</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.54602364185110674</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.35968108651911473</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>0.42595372233400397</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.58052464788732394</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.56734305835010057</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.40088631790744472</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>0.45300553319919507</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.59968963782696172</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.58589436619718305</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.41977112676056338</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>0.42341750503018111</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.55941851106639839</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.54598692152917505</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.41906589537223343</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>0.35889486921529179</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.48267002012072441</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.47067002012072434</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.41797484909456739</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>0.2435824949698189</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.33363279678068414</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.32497334004024148</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.42642957746478877</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>0.16485362173038229</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.23858651911468814</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.23156338028169018</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.42013480885311877</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>0.16513028169014082</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.20695573440643864</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.20086418511066398</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.43084205231388328</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>0.19837910922587487</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.26511293743372216</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.25808324496288443</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.41557104984093324</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>0.18249300880372868</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.37816416364577937</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.36781356809943039</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.40652200932159505</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>0.12869635627530365</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.48628744939271257</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.47461892712550607</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.3799681174089069</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>0.13164176150420584</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.59354280059376541</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.58099505195447798</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.37722365165759525</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>0.372</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>542</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D25" s="4">
-        <v>542</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="D26" s="4">
-        <v>542</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D27" s="4">
-        <v>542</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D28" s="4">
-        <v>542</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>0.43662726358148884</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.64961016096579471</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0.63795120724346077</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.31390492957746474</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>0.32239990162321686</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.6509522872602066</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.63875258239055588</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.33112690605017214</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>0.21179451395572665</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.65288931665062555</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0.63995476419634256</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.35712271414821944</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>0.23601876804619826</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.6556727622714148</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.64189027911453334</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.39593599615014435</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.379</v>
-      </c>
-      <c r="D33" s="4">
-        <v>542</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>0.503</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="D34" s="4">
-        <v>542</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D35" s="4">
-        <v>542</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="D36" s="4">
-        <v>542</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>0.53764134808853126</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.66776056338028167</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.65414688128772636</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.43113682092555328</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>0.54617806841046268</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.6984793762575453</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.68563832997987939</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.40268158953722338</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>0.57815191146881284</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.74701961770623748</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.73488329979879297</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.38763631790744474</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>0.59544919517102612</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.76892706237424557</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.75701810865191155</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.39002515090543255</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>0.60686066398390348</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0.77077012072434603</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.75870221327967802</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.40493410462776652</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>0.61993712273641843</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0.76411770623742459</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0.75154979879275652</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.43213983903420522</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>0.45582242990654204</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.72150221347761934</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0.70763600590260689</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0.44864338416133787</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
-        <v>0.29798845043310879</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.70696679499518766</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.69159769008662164</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0.46862752646775746</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>0.1733975506358926</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.65313424399434761</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.63696420160150724</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0.47091568535091854</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.498</v>
-      </c>
-      <c r="D46" s="4">
-        <v>542</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.627</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="D47" s="4">
-        <v>542</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="D48" s="4">
-        <v>542</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="D49" s="4">
-        <v>542</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
-        <v>0.622</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D50" s="4">
-        <v>542</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
-        <v>0.28228891656288918</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.38536239103362391</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.37546907430469073</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.45196637608966378</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
-        <v>0.26825861353258612</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.3312195931921959</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.32341884599418841</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0.46925446243254459</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
-        <v>0.41870153590701531</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0.5719140722291407</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0.55980365296803647</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0.44972063096720627</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
-        <v>0.36692901618929019</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0.49159734329597338</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.47967911996679119</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0.46260647571606478</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
-        <v>0.49381869688385266</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0.67348536355051936</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0.65841454202077443</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0.43175070821529743</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
-        <v>0.47205854579792256</v>
-      </c>
-      <c r="B56" s="4">
-        <v>0.67361473087818691</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.65837299338999056</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0.39722946175637386</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
-        <v>0.44342870632672327</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.6103342776203966</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.59406893295561847</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0.44931822474032096</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
-        <v>5.7271991365353478E-2</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0.42540744738262276</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0.41401780895844575</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0.36907609282245007</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="D59" s="4">
-        <v>452</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="D60" s="4">
-        <v>452</v>
-      </c>
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="B61" s="4">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="C61" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D61" s="4">
-        <v>452</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="D62" s="4">
-        <v>452</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="D63" s="4">
-        <v>452</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="D64" s="4">
-        <v>452</v>
-      </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="D65" s="4">
-        <v>452</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="D66" s="4">
-        <v>452</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D67" s="4">
-        <v>452</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
-        <v>0.497</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D68" s="4">
-        <v>452</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
-        <v>0.503</v>
-      </c>
-      <c r="B69" s="4">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0.498</v>
-      </c>
-      <c r="D69" s="4">
-        <v>452</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="4">
-        <v>452</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="B71" s="4">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="C71" s="4">
-        <v>0.496</v>
-      </c>
-      <c r="D71" s="4">
-        <v>452</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
-        <v>0.621</v>
-      </c>
-      <c r="B72" s="4">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0.498</v>
-      </c>
-      <c r="D72" s="4">
-        <v>452</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="B73" s="4">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D73" s="4">
-        <v>452</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="B74" s="4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="D74" s="4">
-        <v>452</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="C75" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="D75" s="4">
-        <v>452</v>
-      </c>
-      <c r="E75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="B76" s="4">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C76" s="4">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="D76" s="4">
-        <v>452</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
-        <v>0.48407751091703055</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0.3528569868995633</v>
-      </c>
-      <c r="C77" s="4">
-        <v>0.34153602620087337</v>
-      </c>
-      <c r="D77" s="4">
-        <v>0.30969541484716157</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
-        <v>0.47038973799126638</v>
-      </c>
-      <c r="B78" s="4">
-        <v>0.4105098253275109</v>
-      </c>
-      <c r="C78" s="4">
-        <v>0.3995840611353712</v>
-      </c>
-      <c r="D78" s="4">
-        <v>0.25738973799126635</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
-        <v>0.76185262008733623</v>
-      </c>
-      <c r="B79" s="4">
-        <v>0.49204148471615716</v>
-      </c>
-      <c r="C79" s="4">
-        <v>0.4800109170305677</v>
-      </c>
-      <c r="D79" s="4">
-        <v>0.23190283842794762</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
-        <v>0.71418340611353714</v>
-      </c>
-      <c r="B80" s="4">
-        <v>0.50502183406113532</v>
-      </c>
-      <c r="C80" s="4">
-        <v>0.49321506550218336</v>
-      </c>
-      <c r="D80" s="4">
-        <v>0.17953384279475984</v>
-      </c>
-      <c r="E80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
-        <v>0.69425873362445401</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0.5187063318777293</v>
-      </c>
-      <c r="C81" s="4">
-        <v>0.50705676855895199</v>
-      </c>
-      <c r="D81" s="4">
-        <v>0.18288646288209606</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="4">
-        <v>0.700240174672489</v>
-      </c>
-      <c r="B82" s="4">
-        <v>0.50503820960698687</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0.49220524017467249</v>
-      </c>
-      <c r="D82" s="4">
-        <v>0.17760698689956333</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
-        <v>0.44154039301310033</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0.44635917030567696</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0.4333307860262009</v>
-      </c>
-      <c r="D83" s="4">
-        <v>0.23215720524017469</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
-        <v>0.16330349344978165</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0.37801528384279476</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0.36575109170305681</v>
-      </c>
-      <c r="D84" s="4">
-        <v>0.23750218340611354</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
-        <v>0.21167576419213974</v>
-      </c>
-      <c r="B85" s="4">
-        <v>0.39638646288209606</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0.3826626637554586</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0.28405676855895196</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="4">
-        <v>0.28747270742358078</v>
-      </c>
-      <c r="B86" s="4">
-        <v>0.43082314410480349</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0.41611353711790394</v>
-      </c>
-      <c r="D86" s="4">
-        <v>0.34483842794759828</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="4">
-        <v>0.34429366812227069</v>
-      </c>
-      <c r="B87" s="4">
-        <v>0.49533078602620095</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0.4796331877729258</v>
-      </c>
-      <c r="D87" s="4">
-        <v>0.35593340611353713</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="4">
-        <v>0.48291484716157201</v>
-      </c>
-      <c r="B88" s="4">
-        <v>0.64941703056768563</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0.6311266375545852</v>
-      </c>
-      <c r="D88" s="4">
-        <v>0.41606877729257646</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
-        <v>0.49198471615720518</v>
-      </c>
-      <c r="B89" s="4">
-        <v>0.66853165938864634</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0.65087008733624452</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0.40151746724890819</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
-        <v>0.48317358078602618</v>
-      </c>
-      <c r="B90" s="4">
-        <v>0.66513427947598247</v>
-      </c>
-      <c r="C90" s="4">
-        <v>0.64780131004366825</v>
-      </c>
-      <c r="D90" s="4">
-        <v>0.40777947598253278</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
-        <v>0.68796179039301308</v>
-      </c>
-      <c r="B91" s="4">
-        <v>0.6805665938864629</v>
-      </c>
-      <c r="C91" s="4">
-        <v>0.66598362445414849</v>
-      </c>
-      <c r="D91" s="4">
-        <v>0.34705786026200869</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="4">
-        <v>0.91239737991266368</v>
-      </c>
-      <c r="B92" s="4">
-        <v>0.69575764192139744</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0.68389847161572059</v>
-      </c>
-      <c r="D92" s="4">
-        <v>0.30530021834061133</v>
-      </c>
-      <c r="E92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="4">
-        <v>0.89852292576419213</v>
-      </c>
-      <c r="B93" s="4">
-        <v>0.66876200873362446</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0.65812663755458523</v>
-      </c>
-      <c r="D93" s="4">
-        <v>0.30440174672489084</v>
-      </c>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="4">
-        <v>1.1153427947598253</v>
-      </c>
-      <c r="B94" s="4">
-        <v>0.6399061135371179</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0.63083515283842795</v>
-      </c>
-      <c r="D94" s="4">
-        <v>0.24585917030567689</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="4">
-        <v>0.87222489082969434</v>
-      </c>
-      <c r="B95" s="4">
-        <v>0.58807641921397369</v>
-      </c>
-      <c r="C95" s="4">
-        <v>0.57743886462882088</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0.28320742358078604</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="4">
-        <v>0.81627510917030577</v>
-      </c>
-      <c r="B96" s="4">
-        <v>0.47393886462882101</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0.46151091703056774</v>
-      </c>
-      <c r="D96" s="4">
-        <v>0.28522161572052401</v>
-      </c>
-      <c r="E96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="4">
-        <v>0.58789931350114422</v>
-      </c>
-      <c r="B97" s="4">
-        <v>0.32162090007627769</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0.31208237986270027</v>
-      </c>
-      <c r="D97" s="4">
-        <v>0.28738977879481309</v>
-      </c>
-      <c r="E97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="4">
-        <v>0.39630597889800701</v>
-      </c>
-      <c r="B98" s="4">
-        <v>0.35321981242672917</v>
-      </c>
-      <c r="C98" s="4">
-        <v>0.34306271981242681</v>
-      </c>
-      <c r="D98" s="4">
-        <v>0.34596307151230948</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="4">
-        <v>0.46532716049382711</v>
-      </c>
-      <c r="B99" s="4">
-        <v>0.1250864197530864</v>
-      </c>
-      <c r="C99" s="4">
-        <v>0.12065740740740739</v>
-      </c>
-      <c r="D99" s="4">
-        <v>0.22177006172839506</v>
-      </c>
-      <c r="E99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="4">
-        <v>0.28598697916666665</v>
-      </c>
-      <c r="B100" s="4">
-        <v>0.40978593749999997</v>
-      </c>
-      <c r="C100" s="4">
-        <v>0.39888593750000007</v>
-      </c>
-      <c r="D100" s="4">
-        <v>0.37622708333333332</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="4">
-        <v>0.19677314814814814</v>
-      </c>
-      <c r="B101" s="4">
-        <v>0.2941126543209876</v>
-      </c>
-      <c r="C101" s="4">
-        <v>0.28553086419753088</v>
-      </c>
-      <c r="D101" s="4">
-        <v>0.36825154320987658</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="4">
-        <v>0.25992129629629629</v>
-      </c>
-      <c r="B102" s="4">
-        <v>0.39596604938271607</v>
-      </c>
-      <c r="C102" s="4">
-        <v>0.38602160493827159</v>
-      </c>
-      <c r="D102" s="4">
-        <v>0.29056172839506178</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="4">
-        <v>0.29716812227074235</v>
-      </c>
-      <c r="B103" s="4">
-        <v>0.63452183406113538</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0.62146724890829697</v>
-      </c>
-      <c r="D103" s="4">
-        <v>0.2562325327510917</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="4">
-        <v>0.29759279475982536</v>
-      </c>
-      <c r="B104" s="4">
-        <v>0.56620305676855887</v>
-      </c>
-      <c r="C104" s="4">
-        <v>0.55100545851528393</v>
-      </c>
-      <c r="D104" s="4">
-        <v>0.28209388646288214</v>
-      </c>
-      <c r="E104" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="4">
-        <v>0.31440065502183412</v>
-      </c>
-      <c r="B105" s="4">
-        <v>0.64190720524017464</v>
-      </c>
-      <c r="C105" s="4">
-        <v>0.63131441048034931</v>
-      </c>
-      <c r="D105" s="4">
-        <v>0.26943668122270742</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="4">
-        <v>0.32700109170305686</v>
-      </c>
-      <c r="B106" s="4">
-        <v>0.79044759825327504</v>
-      </c>
-      <c r="C106" s="4">
-        <v>0.78338100436681213</v>
-      </c>
-      <c r="D106" s="4">
-        <v>0.16821069868995631</v>
-      </c>
-      <c r="E106" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="4">
-        <v>0.31518886462882106</v>
-      </c>
-      <c r="B107" s="4">
-        <v>0.71265611353711789</v>
-      </c>
-      <c r="C107" s="4">
-        <v>0.7051823144104804</v>
-      </c>
-      <c r="D107" s="4">
-        <v>0.24510262008733624</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="4">
-        <v>0.58841484716157211</v>
-      </c>
-      <c r="B108" s="4">
-        <v>0.77206659388646282</v>
-      </c>
-      <c r="C108" s="4">
-        <v>0.76673580786026196</v>
-      </c>
-      <c r="D108" s="4">
-        <v>0.21185262008733627</v>
-      </c>
-      <c r="E108" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="4">
-        <v>0.51709839816933645</v>
-      </c>
-      <c r="B109" s="4">
-        <v>0.75225553012967206</v>
-      </c>
-      <c r="C109" s="4">
-        <v>0.7458520213577422</v>
-      </c>
-      <c r="D109" s="4">
-        <v>0.20028222730739892</v>
-      </c>
-      <c r="E109" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="4">
-        <v>0.63277901639344269</v>
-      </c>
-      <c r="B110" s="4">
-        <v>0.66425836065573762</v>
-      </c>
-      <c r="C110" s="4">
-        <v>0.65683016393442617</v>
-      </c>
-      <c r="D110" s="4">
-        <v>0.20036655737704917</v>
-      </c>
-      <c r="E110" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="4">
-        <v>0.74915740740740733</v>
-      </c>
-      <c r="B111" s="4">
-        <v>0.8838256172839507</v>
-      </c>
-      <c r="C111" s="4">
-        <v>0.87935493827160494</v>
-      </c>
-      <c r="D111" s="4">
-        <v>0.13452314814814814</v>
-      </c>
-      <c r="E111" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="4">
-        <v>0.63941049382716042</v>
-      </c>
-      <c r="B112" s="4">
-        <v>0.55409259259259258</v>
-      </c>
-      <c r="C112" s="4">
-        <v>0.54608641975308636</v>
-      </c>
-      <c r="D112" s="4">
-        <v>0.16030401234567904</v>
-      </c>
-      <c r="E112" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="4">
-        <v>0.695891975308642</v>
-      </c>
-      <c r="B113" s="4">
-        <v>0.80783796296296306</v>
-      </c>
-      <c r="C113" s="4">
-        <v>0.80208796296296303</v>
-      </c>
-      <c r="D113" s="4">
-        <v>0.11951543209876543</v>
-      </c>
-      <c r="E113" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="4">
-        <v>0.37031172839506171</v>
-      </c>
-      <c r="B114" s="4">
-        <v>0.74363117283950608</v>
-      </c>
-      <c r="C114" s="4">
-        <v>0.73497839506172835</v>
-      </c>
-      <c r="D114" s="4">
-        <v>0.20113580246913582</v>
-      </c>
-      <c r="E114" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="4">
-        <v>0.21721450617283949</v>
-      </c>
-      <c r="B115" s="4">
-        <v>0.29511419753086415</v>
-      </c>
-      <c r="C115" s="4">
-        <v>0.28602469135802466</v>
-      </c>
-      <c r="D115" s="4">
-        <v>0.3270925925925926</v>
-      </c>
-      <c r="E115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="4">
-        <v>0.67511419753086432</v>
-      </c>
-      <c r="B116" s="4">
-        <v>0.81450617283950633</v>
-      </c>
-      <c r="C116" s="4">
-        <v>0.80586728395061724</v>
-      </c>
-      <c r="D116" s="4">
-        <v>0.14844290123456791</v>
-      </c>
-      <c r="E116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="4">
-        <v>0.23178086419753088</v>
-      </c>
-      <c r="B117" s="4">
-        <v>0.3136651234567901</v>
-      </c>
-      <c r="C117" s="4">
-        <v>0.30439043209876543</v>
-      </c>
-      <c r="D117" s="4">
-        <v>0.40720987654320989</v>
-      </c>
-      <c r="E117" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="4">
-        <v>0.32614043209876542</v>
-      </c>
-      <c r="B118" s="4">
-        <v>0.66418827160493832</v>
-      </c>
-      <c r="C118" s="4">
-        <v>0.65327314814814819</v>
-      </c>
-      <c r="D118" s="4">
-        <v>0.23249691358024693</v>
-      </c>
-      <c r="E118" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="4">
-        <v>0.45191157205240173</v>
-      </c>
-      <c r="B119" s="4">
-        <v>0.71751637554585157</v>
-      </c>
-      <c r="C119" s="4">
-        <v>0.70341703056768556</v>
-      </c>
-      <c r="D119" s="4">
-        <v>0.31436244541484709</v>
-      </c>
-      <c r="E119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="4">
-        <v>0.70481550218340605</v>
-      </c>
-      <c r="B120" s="4">
-        <v>0.6883067685589519</v>
-      </c>
-      <c r="C120" s="4">
-        <v>0.67375982532751089</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0.31729803493449782</v>
-      </c>
-      <c r="E120" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="4">
-        <v>0.66993013100436671</v>
-      </c>
-      <c r="B121" s="4">
-        <v>0.61564737991266361</v>
-      </c>
-      <c r="C121" s="4">
-        <v>0.60083842794759823</v>
-      </c>
-      <c r="D121" s="4">
-        <v>0.3620851528384279</v>
-      </c>
-      <c r="E121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="4">
-        <v>0.52805186880244082</v>
-      </c>
-      <c r="B122" s="4">
-        <v>0.4776453089244852</v>
-      </c>
-      <c r="C122" s="4">
-        <v>0.4662913806254767</v>
-      </c>
-      <c r="D122" s="4">
-        <v>0.43452479023646073</v>
-      </c>
-      <c r="E122" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="4">
-        <v>0.48735032304379039</v>
-      </c>
-      <c r="B123" s="4">
-        <v>0.40653409906676241</v>
-      </c>
-      <c r="C123" s="4">
-        <v>0.39747092605886575</v>
-      </c>
-      <c r="D123" s="4">
-        <v>0.46405814788226846</v>
-      </c>
-      <c r="E123" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="4">
-        <v>0.2947348423605497</v>
-      </c>
-      <c r="B124" s="4">
-        <v>0.36434842360549724</v>
-      </c>
-      <c r="C124" s="4">
-        <v>0.35639207760711394</v>
-      </c>
-      <c r="D124" s="4">
-        <v>0.49673645917542436</v>
-      </c>
-      <c r="E124" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="4">
-        <v>0.37774537037037037</v>
-      </c>
-      <c r="B125" s="4">
-        <v>0.48968672839506172</v>
-      </c>
-      <c r="C125" s="4">
-        <v>0.47567746913580244</v>
-      </c>
-      <c r="D125" s="4">
-        <v>0.4827438271604938</v>
-      </c>
-      <c r="E125" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="4">
-        <v>0.51038100436681222</v>
-      </c>
-      <c r="B126" s="4">
-        <v>0.77105349344978158</v>
-      </c>
-      <c r="C126" s="4">
-        <v>0.75919213973799127</v>
-      </c>
-      <c r="D126" s="4">
-        <v>0.30135262008733621</v>
-      </c>
-      <c r="E126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="4">
-        <v>0.49807205240174668</v>
-      </c>
-      <c r="B127" s="4">
-        <v>0.74016921397379909</v>
-      </c>
-      <c r="C127" s="4">
-        <v>0.72651746724890831</v>
-      </c>
-      <c r="D127" s="4">
-        <v>0.32261353711790386</v>
-      </c>
-      <c r="E127" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="4">
-        <v>0.44773580786026207</v>
-      </c>
-      <c r="B128" s="4">
-        <v>0.64505458515283842</v>
-      </c>
-      <c r="C128" s="4">
-        <v>0.63229803493449788</v>
-      </c>
-      <c r="D128" s="4">
-        <v>0.35974781659388638</v>
-      </c>
-      <c r="E128" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="4">
-        <v>0.3940054585152839</v>
-      </c>
-      <c r="B129" s="4">
-        <v>0.52897161572052398</v>
-      </c>
-      <c r="C129" s="4">
-        <v>0.51446724890829698</v>
-      </c>
-      <c r="D129" s="4">
-        <v>0.41594868995633189</v>
-      </c>
-      <c r="E129" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="4">
-        <v>0.31869794050343253</v>
-      </c>
-      <c r="B130" s="4">
-        <v>0.45276201372997715</v>
-      </c>
-      <c r="C130" s="4">
-        <v>0.43945232646834481</v>
-      </c>
-      <c r="D130" s="4">
-        <v>0.43648207475209766</v>
-      </c>
-      <c r="E130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="4">
-        <v>0.28968726163234176</v>
-      </c>
-      <c r="B131" s="4">
-        <v>0.41177726926010683</v>
-      </c>
-      <c r="C131" s="4">
-        <v>0.39824942791762014</v>
-      </c>
-      <c r="D131" s="4">
-        <v>0.46176735316552248</v>
-      </c>
-      <c r="E131" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="4">
-        <v>0.22659567901234567</v>
-      </c>
-      <c r="B132" s="4">
-        <v>0.32595061728395064</v>
-      </c>
-      <c r="C132" s="4">
-        <v>0.31579012345679014</v>
-      </c>
-      <c r="D132" s="4">
-        <v>0.45165277777777779</v>
-      </c>
-      <c r="E132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="4">
-        <v>0.41448590163934418</v>
-      </c>
-      <c r="B133" s="4">
-        <v>0.6432000000000001</v>
-      </c>
-      <c r="C133" s="4">
-        <v>0.63074950819672138</v>
-      </c>
-      <c r="D133" s="4">
-        <v>0.37564262295081974</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="4">
-        <v>0.34810030864197528</v>
-      </c>
-      <c r="B134" s="4">
-        <v>0.42940277777777786</v>
-      </c>
-      <c r="C134" s="4">
-        <v>0.41654475308641975</v>
-      </c>
-      <c r="D134" s="4">
-        <v>0.47155246913580251</v>
-      </c>
-      <c r="E134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="4">
-        <v>0.47506790123456788</v>
-      </c>
-      <c r="B135" s="4">
-        <v>0.84387808641975304</v>
-      </c>
-      <c r="C135" s="4">
-        <v>0.83578549382716061</v>
-      </c>
-      <c r="D135" s="4">
-        <v>0.25411882716049378</v>
-      </c>
-      <c r="E135" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="4">
-        <v>0.30293055555555554</v>
-      </c>
-      <c r="B136" s="4">
-        <v>0.4583904320987654</v>
-      </c>
-      <c r="C136" s="4">
-        <v>0.4458225308641976</v>
-      </c>
-      <c r="D136" s="4">
-        <v>0.39977160493827157</v>
-      </c>
-      <c r="E136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="4">
-        <v>0.34581172839506175</v>
-      </c>
-      <c r="B137" s="4">
-        <v>0.45230092592592591</v>
-      </c>
-      <c r="C137" s="4">
-        <v>0.43955092592592593</v>
-      </c>
-      <c r="D137" s="4">
-        <v>0.45423611111111106</v>
-      </c>
-      <c r="E137" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="4">
-        <v>0.38698851399856427</v>
-      </c>
-      <c r="B138" s="4">
-        <v>0.73350323043790366</v>
-      </c>
-      <c r="C138" s="4">
-        <v>0.72124551328068909</v>
-      </c>
-      <c r="D138" s="4">
-        <v>0.26339267767408475</v>
-      </c>
-      <c r="E138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="4">
-        <v>0.98127405012126112</v>
-      </c>
-      <c r="B139" s="4">
-        <v>0.70153759094583668</v>
-      </c>
-      <c r="C139" s="4">
-        <v>0.69292805173807592</v>
-      </c>
-      <c r="D139" s="4">
-        <v>0.24812368633791429</v>
-      </c>
-      <c r="E139" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="4">
-        <v>0.35440177849636217</v>
-      </c>
-      <c r="B140" s="4">
-        <v>0.56339854486661289</v>
-      </c>
-      <c r="C140" s="4">
-        <v>0.55498544866612776</v>
-      </c>
-      <c r="D140" s="4">
-        <v>0.30970088924818112</v>
-      </c>
-      <c r="E140" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="4">
-        <v>0.38955780113177046</v>
-      </c>
-      <c r="B141" s="4">
-        <v>0.72835569927243327</v>
-      </c>
-      <c r="C141" s="4">
-        <v>0.722029911075182</v>
-      </c>
-      <c r="D141" s="4">
-        <v>0.22589086499595798</v>
-      </c>
-      <c r="E141" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="4">
-        <v>0.40091026677445429</v>
-      </c>
-      <c r="B142" s="4">
-        <v>0.74202425222312041</v>
-      </c>
-      <c r="C142" s="4">
-        <v>0.73454890864995959</v>
-      </c>
-      <c r="D142" s="4">
-        <v>0.23912368633791431</v>
-      </c>
-      <c r="E142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="4">
-        <v>0.40857477768795475</v>
-      </c>
-      <c r="B143" s="4">
-        <v>0.72374130962004846</v>
-      </c>
-      <c r="C143" s="4">
-        <v>0.71677687954729175</v>
-      </c>
-      <c r="D143" s="4">
-        <v>0.23121746160064668</v>
-      </c>
-      <c r="E143" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="4">
-        <v>0.35992805173807596</v>
-      </c>
-      <c r="B144" s="4">
-        <v>0.55976475343573151</v>
-      </c>
-      <c r="C144" s="4">
-        <v>0.55147776879547294</v>
-      </c>
-      <c r="D144" s="4">
-        <v>0.29590784155214223</v>
-      </c>
-      <c r="E144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="4">
-        <v>0.30325435203094775</v>
-      </c>
-      <c r="B145" s="4">
-        <v>0.48947775628626694</v>
-      </c>
-      <c r="C145" s="4">
-        <v>0.47936508704061892</v>
-      </c>
-      <c r="D145" s="4">
-        <v>0.3790749516441006</v>
-      </c>
-      <c r="E145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="4">
-        <v>0.292453578336557</v>
-      </c>
-      <c r="B146" s="4">
-        <v>0.43017843326885874</v>
-      </c>
-      <c r="C146" s="4">
-        <v>0.42017843326885879</v>
-      </c>
-      <c r="D146" s="4">
-        <v>0.39548500967117983</v>
-      </c>
-      <c r="E146" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="4">
-        <v>0.29153046421663442</v>
-      </c>
-      <c r="B147" s="4">
-        <v>0.44353094777562857</v>
-      </c>
-      <c r="C147" s="4">
-        <v>0.43335589941972918</v>
-      </c>
-      <c r="D147" s="4">
-        <v>0.38252272727272729</v>
-      </c>
-      <c r="E147" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="4">
-        <v>0.29048017408123789</v>
-      </c>
-      <c r="B148" s="4">
-        <v>0.46354206963249517</v>
-      </c>
-      <c r="C148" s="4">
-        <v>0.45352949709864604</v>
-      </c>
-      <c r="D148" s="4">
-        <v>0.36019729206963247</v>
-      </c>
-      <c r="E148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="4">
-        <v>0.27696615087040621</v>
-      </c>
-      <c r="B149" s="4">
-        <v>0.51458075435203099</v>
-      </c>
-      <c r="C149" s="4">
-        <v>0.50364313346228229</v>
-      </c>
-      <c r="D149" s="4">
-        <v>0.30405851063829786</v>
-      </c>
-      <c r="E149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="4">
-        <v>0.27066972920696319</v>
-      </c>
-      <c r="B150" s="4">
-        <v>0.52183317214700198</v>
-      </c>
-      <c r="C150" s="4">
-        <v>0.51107059961315282</v>
-      </c>
-      <c r="D150" s="4">
-        <v>0.28974854932301736</v>
-      </c>
-      <c r="E150" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="4">
-        <v>0.27595019342359767</v>
-      </c>
-      <c r="B151" s="4">
-        <v>0.58061605415860729</v>
-      </c>
-      <c r="C151" s="4">
-        <v>0.56884090909090912</v>
-      </c>
-      <c r="D151" s="4">
-        <v>0.24745793036750485</v>
-      </c>
-      <c r="E151" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="4">
-        <v>0.2502964216634429</v>
-      </c>
-      <c r="B152" s="4">
-        <v>0.56193326885880079</v>
-      </c>
-      <c r="C152" s="4">
-        <v>0.55077079303675047</v>
-      </c>
-      <c r="D152" s="4">
-        <v>0.21849516441005801</v>
-      </c>
-      <c r="E152" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="4">
-        <v>0.21484767891682782</v>
-      </c>
-      <c r="B153" s="4">
-        <v>0.45679206963249508</v>
-      </c>
-      <c r="C153" s="4">
-        <v>0.44772969052224371</v>
-      </c>
-      <c r="D153" s="4">
-        <v>0.24573500967117989</v>
-      </c>
-      <c r="E153" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="4">
-        <v>0.1876063829787234</v>
-      </c>
-      <c r="B154" s="4">
-        <v>0.38321179883945838</v>
-      </c>
-      <c r="C154" s="4">
-        <v>0.37524951644100579</v>
-      </c>
-      <c r="D154" s="4">
-        <v>0.24859574468085108</v>
-      </c>
-      <c r="E154" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="4">
-        <v>0.18876402321083172</v>
-      </c>
-      <c r="B155" s="4">
-        <v>0.32739023210831714</v>
-      </c>
-      <c r="C155" s="4">
-        <v>0.32002804642166344</v>
-      </c>
-      <c r="D155" s="4">
-        <v>0.29947437137330746</v>
-      </c>
-      <c r="E155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="4">
-        <v>0.21305464216634432</v>
-      </c>
-      <c r="B156" s="4">
-        <v>0.32215957446808513</v>
-      </c>
-      <c r="C156" s="4">
-        <v>0.3142848162475822</v>
-      </c>
-      <c r="D156" s="4">
-        <v>0.3614748549323018</v>
-      </c>
-      <c r="E156" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="4">
-        <v>0.28485783365570599</v>
-      </c>
-      <c r="B157" s="4">
-        <v>0.39930319148936172</v>
-      </c>
-      <c r="C157" s="4">
-        <v>0.38949081237911026</v>
-      </c>
-      <c r="D157" s="4">
-        <v>0.40419922630560928</v>
-      </c>
-      <c r="E157" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="4">
-        <v>0.29653723404255322</v>
-      </c>
-      <c r="B158" s="4">
-        <v>0.37811266924564796</v>
-      </c>
-      <c r="C158" s="4">
-        <v>0.36860009671179877</v>
-      </c>
-      <c r="D158" s="4">
-        <v>0.46969970986460347</v>
-      </c>
-      <c r="E158" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="4">
-        <v>0.32521228239845262</v>
-      </c>
-      <c r="B159" s="4">
-        <v>0.40067601547388781</v>
-      </c>
-      <c r="C159" s="4">
-        <v>0.39091344294003866</v>
-      </c>
-      <c r="D159" s="4">
-        <v>0.48318713733075436</v>
-      </c>
-      <c r="E159" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="4">
-        <v>0.31142843326885877</v>
-      </c>
-      <c r="B160" s="4">
-        <v>0.37999323017408115</v>
-      </c>
-      <c r="C160" s="4">
-        <v>0.37063056092843322</v>
-      </c>
-      <c r="D160" s="4">
-        <v>0.48293713733075438</v>
-      </c>
-      <c r="E160" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="4">
-        <v>0.29832785299806575</v>
-      </c>
-      <c r="B161" s="4">
-        <v>0.35682930367504834</v>
-      </c>
-      <c r="C161" s="4">
-        <v>0.3479666344294004</v>
-      </c>
-      <c r="D161" s="4">
-        <v>0.48661218568665382</v>
-      </c>
-      <c r="E161" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="4">
-        <v>0.2850101547388782</v>
-      </c>
-      <c r="B162" s="4">
-        <v>0.43058075435203091</v>
-      </c>
-      <c r="C162" s="4">
-        <v>0.42163104448742744</v>
-      </c>
-      <c r="D162" s="4">
-        <v>0.39184912959381035</v>
-      </c>
-      <c r="E162" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="4">
-        <v>0.24319197292069636</v>
-      </c>
-      <c r="B163" s="4">
-        <v>0.44322630560928433</v>
-      </c>
-      <c r="C163" s="4">
-        <v>0.43471421663442944</v>
-      </c>
-      <c r="D163" s="4">
-        <v>0.32890909090909093</v>
-      </c>
-      <c r="E163" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="4">
-        <v>0.22737379110251452</v>
-      </c>
-      <c r="B164" s="4">
-        <v>0.44860348162475822</v>
-      </c>
-      <c r="C164" s="4">
-        <v>0.44029158607350105</v>
-      </c>
-      <c r="D164" s="4">
-        <v>0.26499516441005805</v>
-      </c>
-      <c r="E164" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="4">
-        <v>0.23741682785299806</v>
-      </c>
-      <c r="B165" s="4">
-        <v>0.49301934235976791</v>
-      </c>
-      <c r="C165" s="4">
-        <v>0.48448259187620901</v>
-      </c>
-      <c r="D165" s="4">
-        <v>0.22610686653771761</v>
-      </c>
-      <c r="E165" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="4">
-        <v>0.21720986460348163</v>
-      </c>
-      <c r="B166" s="4">
-        <v>0.41195744680851071</v>
-      </c>
-      <c r="C166" s="4">
-        <v>0.40340764023210834</v>
-      </c>
-      <c r="D166" s="4">
-        <v>0.23444584139264993</v>
-      </c>
-      <c r="E166" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="4">
-        <v>0.28070212765957447</v>
-      </c>
-      <c r="B167" s="4">
-        <v>0.44518713733075443</v>
-      </c>
-      <c r="C167" s="4">
-        <v>0.43569970986460349</v>
-      </c>
-      <c r="D167" s="4">
-        <v>0.28041054158607348</v>
-      </c>
-      <c r="E167" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="4">
-        <v>0.28165570599613154</v>
-      </c>
-      <c r="B168" s="4">
-        <v>0.43895744680851062</v>
-      </c>
-      <c r="C168" s="4">
-        <v>0.42919487427466152</v>
-      </c>
-      <c r="D168" s="4">
-        <v>0.32187379110251452</v>
-      </c>
-      <c r="E168" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="4">
-        <v>0.30799903288201164</v>
-      </c>
-      <c r="B169" s="4">
-        <v>0.46391441005802714</v>
-      </c>
-      <c r="C169" s="4">
-        <v>0.4532142166344294</v>
-      </c>
-      <c r="D169" s="4">
-        <v>0.35006286266924569</v>
-      </c>
-      <c r="E169" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="4">
-        <v>0.37769535783365571</v>
-      </c>
-      <c r="B170" s="4">
-        <v>0.54459235976789178</v>
-      </c>
-      <c r="C170" s="4">
-        <v>0.53267988394584131</v>
-      </c>
-      <c r="D170" s="4">
-        <v>0.39460154738878139</v>
-      </c>
-      <c r="E170" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="4">
-        <v>0.34729545454545446</v>
-      </c>
-      <c r="B171" s="4">
-        <v>0.48340522243713735</v>
-      </c>
-      <c r="C171" s="4">
-        <v>0.47215522243713737</v>
-      </c>
-      <c r="D171" s="4">
-        <v>0.40670116054158606</v>
-      </c>
-      <c r="E171" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A172" s="4">
-        <v>0.32801484480431847</v>
-      </c>
-      <c r="B172" s="4">
-        <v>0.55825955915429604</v>
-      </c>
-      <c r="C172" s="4">
-        <v>0.54693387314439945</v>
-      </c>
-      <c r="D172" s="4">
-        <v>0.37590013495276653</v>
-      </c>
-      <c r="E172" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="4">
-        <v>0.32551237067026545</v>
-      </c>
-      <c r="B173" s="4">
-        <v>0.55577372919478174</v>
-      </c>
-      <c r="C173" s="4">
-        <v>0.54492487629329733</v>
-      </c>
-      <c r="D173" s="4">
-        <v>0.36582546108861896</v>
-      </c>
-      <c r="E173" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A174" s="4">
-        <v>0.3672955465587045</v>
-      </c>
-      <c r="B174" s="4">
-        <v>0.63430769230769224</v>
-      </c>
-      <c r="C174" s="4">
-        <v>0.62345883940620783</v>
-      </c>
-      <c r="D174" s="4">
-        <v>0.36270670265407107</v>
-      </c>
-      <c r="E174" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="4">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="B175" s="4">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="C175" s="4">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="D175" s="4">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="E175" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="4">
-        <v>0.44473742746615086</v>
-      </c>
-      <c r="B176" s="4">
-        <v>0.6337693423597679</v>
-      </c>
-      <c r="C176" s="4">
-        <v>0.62294439071566732</v>
-      </c>
-      <c r="D176" s="4">
-        <v>0.38672292069632491</v>
-      </c>
-      <c r="E176" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="4">
-        <v>0.42572872340425527</v>
-      </c>
-      <c r="B177" s="4">
-        <v>0.59920841392649904</v>
-      </c>
-      <c r="C177" s="4">
-        <v>0.58828336557059957</v>
-      </c>
-      <c r="D177" s="4">
-        <v>0.40816199226305611</v>
-      </c>
-      <c r="E177" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="4">
-        <v>0.41831431334622826</v>
-      </c>
-      <c r="B178" s="4">
-        <v>0.56967504835589944</v>
-      </c>
-      <c r="C178" s="4">
-        <v>0.55831237911025144</v>
-      </c>
-      <c r="D178" s="4">
-        <v>0.41565328820116049</v>
-      </c>
-      <c r="E178" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="4">
-        <v>0.40923791102514506</v>
-      </c>
-      <c r="B179" s="4">
-        <v>0.54841634429400388</v>
-      </c>
-      <c r="C179" s="4">
-        <v>0.53621615087040619</v>
-      </c>
-      <c r="D179" s="4">
-        <v>0.42289893617021279</v>
-      </c>
-      <c r="E179" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="4">
-        <v>0.38622098646034814</v>
-      </c>
-      <c r="B180" s="4">
-        <v>0.54784574468085101</v>
-      </c>
-      <c r="C180" s="4">
-        <v>0.53549564796905225</v>
-      </c>
-      <c r="D180" s="4">
-        <v>0.40107495164410051</v>
-      </c>
-      <c r="E180" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A181" s="4">
-        <v>0.42982225656877898</v>
-      </c>
-      <c r="B181" s="4">
-        <v>0.61300360638845963</v>
-      </c>
-      <c r="C181" s="4">
-        <v>0.60052653271509537</v>
-      </c>
-      <c r="D181" s="4">
-        <v>0.4036862442040185</v>
-      </c>
-      <c r="E181" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="4">
-        <v>0.42258747412008285</v>
-      </c>
-      <c r="B182" s="4">
-        <v>0.65650310559006209</v>
-      </c>
-      <c r="C182" s="4">
-        <v>0.6455776397515528</v>
-      </c>
-      <c r="D182" s="4">
-        <v>0.37374275362318837</v>
-      </c>
-      <c r="E182" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="4">
-        <v>0.40133922261484095</v>
-      </c>
-      <c r="B183" s="4">
-        <v>0.65255901060070665</v>
-      </c>
-      <c r="C183" s="4">
-        <v>0.64288480565371031</v>
-      </c>
-      <c r="D183" s="4">
-        <v>0.36610530035335687</v>
-      </c>
-      <c r="E183" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="4">
-        <v>0.40695477031802119</v>
-      </c>
-      <c r="B184" s="4">
-        <v>0.5718727915194346</v>
-      </c>
-      <c r="C184" s="4">
-        <v>0.56168480565371015</v>
-      </c>
-      <c r="D184" s="4">
-        <v>0.41583180212014137</v>
-      </c>
-      <c r="E184" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="4">
-        <v>0.42600145067698258</v>
-      </c>
-      <c r="B185" s="4">
-        <v>0.58625241779497095</v>
-      </c>
-      <c r="C185" s="4">
-        <v>0.57423984526112182</v>
-      </c>
-      <c r="D185" s="4">
-        <v>0.42331431334622827</v>
-      </c>
-      <c r="E185" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A186" s="4">
-        <v>0.48901353965183758</v>
-      </c>
-      <c r="B186" s="4">
-        <v>0.66005222437137323</v>
-      </c>
-      <c r="C186" s="4">
-        <v>0.64653965183752415</v>
-      </c>
-      <c r="D186" s="4">
-        <v>0.4409003868471954</v>
-      </c>
-      <c r="E186" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="4">
-        <v>0.40737959381044486</v>
-      </c>
-      <c r="B187" s="4">
-        <v>0.66071228239845259</v>
-      </c>
-      <c r="C187" s="4">
-        <v>0.64774951644100576</v>
-      </c>
-      <c r="D187" s="4">
-        <v>0.35207543520309476</v>
-      </c>
-      <c r="E187" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" s="4">
-        <v>0.33533075435203091</v>
-      </c>
-      <c r="B188" s="4">
-        <v>0.53902321083172144</v>
-      </c>
-      <c r="C188" s="4">
-        <v>0.5267354932301741</v>
-      </c>
-      <c r="D188" s="4">
-        <v>0.36715183752417796</v>
-      </c>
-      <c r="E188" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A189" s="4">
-        <v>0.32263249516441006</v>
-      </c>
-      <c r="B189" s="4">
-        <v>0.52091247582205036</v>
-      </c>
-      <c r="C189" s="4">
-        <v>0.50902466150870407</v>
-      </c>
-      <c r="D189" s="4">
-        <v>0.3722267891682785</v>
-      </c>
-      <c r="E189" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A190" s="4">
-        <v>0.32804400386847193</v>
-      </c>
-      <c r="B190" s="4">
-        <v>0.54098452611218562</v>
-      </c>
-      <c r="C190" s="4">
-        <v>0.52918423597678921</v>
-      </c>
-      <c r="D190" s="4">
-        <v>0.36141537717601552</v>
-      </c>
-      <c r="E190" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="4">
-        <v>0.40750145067698262</v>
-      </c>
-      <c r="B191" s="4">
-        <v>0.5556706963249517</v>
-      </c>
-      <c r="C191" s="4">
-        <v>0.54333317214700194</v>
-      </c>
-      <c r="D191" s="4">
-        <v>0.43662862669245645</v>
-      </c>
-      <c r="E191" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A192" s="4">
-        <v>0.47430029013539649</v>
-      </c>
-      <c r="B192" s="4">
-        <v>0.66160299806576406</v>
-      </c>
-      <c r="C192" s="4">
-        <v>0.64785299806576413</v>
-      </c>
-      <c r="D192" s="4">
-        <v>0.43960444874274662</v>
-      </c>
-      <c r="E192" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" s="4">
-        <v>0.42939651837524179</v>
-      </c>
-      <c r="B193" s="4">
-        <v>0.59707350096711798</v>
-      </c>
-      <c r="C193" s="4">
-        <v>0.58451112185686649</v>
-      </c>
-      <c r="D193" s="4">
-        <v>0.47224081237911025</v>
-      </c>
-      <c r="E193" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="4">
-        <v>0.38812524177949703</v>
-      </c>
-      <c r="B194" s="4">
-        <v>0.53043036750483563</v>
-      </c>
-      <c r="C194" s="4">
-        <v>0.51868036750483548</v>
-      </c>
-      <c r="D194" s="4">
-        <v>0.47567794970986454</v>
-      </c>
-      <c r="E194" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A195" s="4">
-        <v>0.37205564142194747</v>
-      </c>
-      <c r="B195" s="4">
-        <v>0.49772539927872234</v>
-      </c>
-      <c r="C195" s="4">
-        <v>0.48712982998454413</v>
-      </c>
-      <c r="D195" s="4">
-        <v>0.48280783101494068</v>
-      </c>
-      <c r="E195" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" s="4">
-        <v>0.33512525879917182</v>
-      </c>
-      <c r="B196" s="4">
-        <v>0.4076154244306418</v>
-      </c>
-      <c r="C196" s="4">
-        <v>0.39908488612836435</v>
-      </c>
-      <c r="D196" s="4">
-        <v>0.5084016563146998</v>
-      </c>
-      <c r="E196" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A197" s="4">
-        <v>0.35632650176678443</v>
-      </c>
-      <c r="B197" s="4">
-        <v>0.44657031802120145</v>
-      </c>
-      <c r="C197" s="4">
-        <v>0.43784593639575964</v>
-      </c>
-      <c r="D197" s="4">
-        <v>0.46614840989399287</v>
-      </c>
-      <c r="E197" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A198" s="4">
-        <v>0.50082402826855121</v>
-      </c>
-      <c r="B198" s="4">
-        <v>0.61499010600706716</v>
-      </c>
-      <c r="C198" s="4">
-        <v>0.60456749116607766</v>
-      </c>
-      <c r="D198" s="4">
-        <v>0.48709187279151944</v>
-      </c>
-      <c r="E198" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A199" s="4">
-        <v>0.50594275618374562</v>
-      </c>
-      <c r="B199" s="4">
-        <v>0.60780141342756178</v>
-      </c>
-      <c r="C199" s="4">
-        <v>0.5974551236749116</v>
-      </c>
-      <c r="D199" s="4">
-        <v>0.48991943462897525</v>
-      </c>
-      <c r="E199" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" s="4">
-        <v>0.50181418219461693</v>
-      </c>
-      <c r="B200" s="4">
-        <v>0.62275931677018637</v>
-      </c>
-      <c r="C200" s="4">
-        <v>0.61060041407867482</v>
-      </c>
-      <c r="D200" s="4">
-        <v>0.57176035196687369</v>
-      </c>
-      <c r="E200" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="4">
-        <v>0.47682685512367495</v>
-      </c>
-      <c r="B201" s="4">
-        <v>0.63659151943462888</v>
-      </c>
-      <c r="C201" s="4">
-        <v>0.62559858657243816</v>
-      </c>
-      <c r="D201" s="4">
-        <v>0.45007773851590116</v>
-      </c>
-      <c r="E201" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A202" s="4">
-        <v>0.43326501766784448</v>
-      </c>
-      <c r="B202" s="4">
-        <v>0.57829045936395751</v>
-      </c>
-      <c r="C202" s="4">
-        <v>0.56798727915194347</v>
-      </c>
-      <c r="D202" s="4">
-        <v>0.43768763250883391</v>
-      </c>
-      <c r="E202" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" s="4">
-        <v>0.154</v>
-      </c>
-      <c r="B203" s="4">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="C203" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="D203" s="4">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="E203" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A204" s="4">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="B204" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="C204" s="4">
-        <v>0.371</v>
-      </c>
-      <c r="D204" s="4">
-        <v>0.376</v>
-      </c>
-      <c r="E204" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" s="4">
-        <v>0.152</v>
-      </c>
-      <c r="B205" s="4">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="C205" s="4">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="D205" s="4">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="E205" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A206" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="B206" s="4">
-        <v>0.308</v>
-      </c>
-      <c r="C206" s="4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D206" s="4">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E206" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A207" s="4">
-        <v>0.151</v>
-      </c>
-      <c r="B207" s="4">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="C207" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D207" s="4">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E207" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A208" s="4">
-        <v>1.7377439024390244</v>
-      </c>
-      <c r="B208" s="4">
-        <v>0.33894715447154472</v>
-      </c>
-      <c r="C208" s="4">
-        <v>0.33213414634146343</v>
-      </c>
-      <c r="D208" s="4">
-        <v>0.25293292682926827</v>
-      </c>
-      <c r="E208" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A209" s="4">
-        <v>2.4907470238095235</v>
-      </c>
-      <c r="B209" s="4">
-        <v>0.41766666666666669</v>
-      </c>
-      <c r="C209" s="4">
-        <v>0.41465873015873017</v>
-      </c>
-      <c r="D209" s="4">
-        <v>9.7961309523809534E-2</v>
-      </c>
-      <c r="E209" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A210" s="4">
-        <v>0.83438591269841267</v>
-      </c>
-      <c r="B210" s="4">
-        <v>0.45260119047619052</v>
-      </c>
-      <c r="C210" s="4">
-        <v>0.44662698412698409</v>
-      </c>
-      <c r="D210" s="4">
-        <v>0.10869940476190475</v>
-      </c>
-      <c r="E210" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A211" s="4">
-        <v>0.1823343253968254</v>
-      </c>
-      <c r="B211" s="4">
-        <v>0.63236210317460317</v>
-      </c>
-      <c r="C211" s="4">
-        <v>0.62777976190476192</v>
-      </c>
-      <c r="D211" s="4">
-        <v>0.14501785714285714</v>
-      </c>
-      <c r="E211" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A212" s="4">
-        <v>0.20944940476190477</v>
-      </c>
-      <c r="B212" s="4">
-        <v>0.44042857142857139</v>
-      </c>
-      <c r="C212" s="4">
-        <v>0.43373809523809526</v>
-      </c>
-      <c r="D212" s="4">
-        <v>0.27160119047619047</v>
-      </c>
-      <c r="E212" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A213" s="4">
-        <v>1.0472698412698411</v>
-      </c>
-      <c r="B213" s="4">
-        <v>0.50869543650793658</v>
-      </c>
-      <c r="C213" s="4">
-        <v>0.50120634920634921</v>
-      </c>
-      <c r="D213" s="4">
-        <v>0.33931249999999996</v>
-      </c>
-      <c r="E213" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A214" s="4">
-        <v>0.17192941176470589</v>
-      </c>
-      <c r="B214" s="4">
-        <v>0.73619679144385031</v>
-      </c>
-      <c r="C214" s="4">
-        <v>0.73194438502673798</v>
-      </c>
-      <c r="D214" s="4">
-        <v>0.11148235294117646</v>
-      </c>
-      <c r="E214" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A215" s="4">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="B215" s="4">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="C215" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D215" s="4">
-        <v>0.307</v>
-      </c>
-      <c r="E215" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A216" s="4">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="B216" s="4">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="C216" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="D216" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="E216" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A217" s="4">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="B217" s="4">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="C217" s="4">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="D217" s="4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E217" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A218" s="4">
-        <v>0.30537195121951216</v>
-      </c>
-      <c r="B218" s="4">
-        <v>0.4044166666666667</v>
-      </c>
-      <c r="C218" s="4">
-        <v>0.39460365853658541</v>
-      </c>
-      <c r="D218" s="4">
-        <v>0.44221544715447153</v>
-      </c>
-      <c r="E218" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A219" s="4">
-        <v>0.21425595238095235</v>
-      </c>
-      <c r="B219" s="4">
-        <v>0.35108234126984122</v>
-      </c>
-      <c r="C219" s="4">
-        <v>0.34561408730158732</v>
-      </c>
-      <c r="D219" s="4">
-        <v>0.25185912698412699</v>
-      </c>
-      <c r="E219" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A220" s="4">
-        <v>0.36854010695187162</v>
-      </c>
-      <c r="B220" s="4">
-        <v>0.50783743315508023</v>
-      </c>
-      <c r="C220" s="4">
-        <v>0.50054973262032076</v>
-      </c>
-      <c r="D220" s="4">
-        <v>0.42447379679144381</v>
-      </c>
-      <c r="E220" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A221" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="B221" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="C221" s="4">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="D221" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E221" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" s="4">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="B222" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="C222" s="4">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="D222" s="4">
-        <v>0.153</v>
-      </c>
-      <c r="E222" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A223" s="4">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="B223" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="C223" s="4">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="D223" s="4">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="E223" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224" s="4">
-        <v>0.504</v>
-      </c>
-      <c r="B224" s="4">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="C224" s="4">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="D224" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E224" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" s="4">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="B225" s="4">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="C225" s="4">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="D225" s="4">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E225" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A226" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="B226" s="4">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="C226" s="4">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="D226" s="4">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="E226" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A227" s="4">
-        <v>0.497</v>
-      </c>
-      <c r="B227" s="4">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="C227" s="4">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="D227" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="E227" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A228" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="B228" s="4">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="C228" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="D228" s="4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E228" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A229" s="4">
-        <v>0.49429268292682926</v>
-      </c>
-      <c r="B229" s="4">
-        <v>0.81628861788617879</v>
-      </c>
-      <c r="C229" s="4">
-        <v>0.8108434959349593</v>
-      </c>
-      <c r="D229" s="4">
-        <v>0.20003048780487806</v>
-      </c>
-      <c r="E229" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A230" s="4">
-        <v>0.56781150793650792</v>
-      </c>
-      <c r="B230" s="4">
-        <v>0.79148511904761909</v>
-      </c>
-      <c r="C230" s="4">
-        <v>0.78560515873015857</v>
-      </c>
-      <c r="D230" s="4">
-        <v>0.36757242063492068</v>
-      </c>
-      <c r="E230" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A231" s="4">
-        <v>0.57027777777777766</v>
-      </c>
-      <c r="B231" s="4">
-        <v>0.7985605158730158</v>
-      </c>
-      <c r="C231" s="4">
-        <v>0.7928789682539682</v>
-      </c>
-      <c r="D231" s="4">
-        <v>0.35727480158730157</v>
-      </c>
-      <c r="E231" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A232" s="4">
-        <v>0.50187797619047625</v>
-      </c>
-      <c r="B232" s="4">
-        <v>0.66982638888888879</v>
-      </c>
-      <c r="C232" s="4">
-        <v>0.66166666666666663</v>
-      </c>
-      <c r="D232" s="4">
-        <v>0.40065674603174606</v>
-      </c>
-      <c r="E232" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A233" s="4">
-        <v>0.55597420634920636</v>
-      </c>
-      <c r="B233" s="4">
-        <v>0.73933928571428575</v>
-      </c>
-      <c r="C233" s="4">
-        <v>0.73161408730158728</v>
-      </c>
-      <c r="D233" s="4">
-        <v>0.3808630952380952</v>
-      </c>
-      <c r="E233" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A234" s="4">
-        <v>0.57677380952380952</v>
-      </c>
-      <c r="B234" s="4">
-        <v>0.77763690476190472</v>
-      </c>
-      <c r="C234" s="4">
-        <v>0.77083928571428573</v>
-      </c>
-      <c r="D234" s="4">
-        <v>0.39473809523809528</v>
-      </c>
-      <c r="E234" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A235" s="4">
-        <v>0.46764484126984124</v>
-      </c>
-      <c r="B235" s="4">
-        <v>0.61039583333333336</v>
-      </c>
-      <c r="C235" s="4">
-        <v>0.60222023809523806</v>
-      </c>
-      <c r="D235" s="4">
-        <v>0.46053174603174596</v>
-      </c>
-      <c r="E235" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A236" s="4">
-        <v>0.39411336898395727</v>
-      </c>
-      <c r="B236" s="4">
-        <v>0.49502994652406423</v>
-      </c>
-      <c r="C236" s="4">
-        <v>0.48674224598930482</v>
-      </c>
-      <c r="D236" s="4">
-        <v>0.49016577540106954</v>
-      </c>
-      <c r="E236" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A237" s="4">
-        <v>0.50544715447154476</v>
-      </c>
-      <c r="B237" s="4">
-        <v>0.65597560975609759</v>
-      </c>
-      <c r="C237" s="4">
-        <v>0.64401422764227645</v>
-      </c>
-      <c r="D237" s="4">
-        <v>0.44189227642276424</v>
-      </c>
-      <c r="E237" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A238" s="4">
-        <v>0.4641058823529412</v>
-      </c>
-      <c r="B238" s="4">
-        <v>0.65170909090909102</v>
-      </c>
-      <c r="C238" s="4">
-        <v>0.64334331550802148</v>
-      </c>
-      <c r="D238" s="4">
-        <v>0.40503850267379676</v>
-      </c>
-      <c r="E238" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A239" s="4">
-        <v>0.47544034090909099</v>
-      </c>
-      <c r="B239" s="4">
-        <v>0.65141193181818169</v>
-      </c>
-      <c r="C239" s="4">
-        <v>0.63824857954545444</v>
-      </c>
-      <c r="D239" s="4">
-        <v>0.43987642045454545</v>
-      </c>
-      <c r="E239" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A240" s="4">
-        <v>0.44565141955835974</v>
-      </c>
-      <c r="B240" s="4">
-        <v>0.68132097791798107</v>
-      </c>
-      <c r="C240" s="4">
-        <v>0.67481703470031551</v>
-      </c>
-      <c r="D240" s="4">
-        <v>0.33706309148264985</v>
-      </c>
-      <c r="E240" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A241" s="4">
-        <v>0.47758432539682538</v>
-      </c>
-      <c r="B241" s="4">
-        <v>0.72211111111111104</v>
-      </c>
-      <c r="C241" s="4">
-        <v>0.71663293650793647</v>
-      </c>
-      <c r="D241" s="4">
-        <v>0.31776190476190475</v>
-      </c>
-      <c r="E241" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A242" s="4">
-        <v>0.41359722222222217</v>
-      </c>
-      <c r="B242" s="4">
-        <v>0.64842857142857147</v>
-      </c>
-      <c r="C242" s="4">
-        <v>0.64227777777777773</v>
-      </c>
-      <c r="D242" s="4">
-        <v>0.28621726190476193</v>
-      </c>
-      <c r="E242" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A243" s="4">
-        <v>0.41929365079365083</v>
-      </c>
-      <c r="B243" s="4">
-        <v>0.64204761904761898</v>
-      </c>
-      <c r="C243" s="4">
-        <v>0.63652083333333342</v>
-      </c>
-      <c r="D243" s="4">
-        <v>0.30280555555555549</v>
-      </c>
-      <c r="E243" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A244" s="4">
-        <v>0.41440277777777773</v>
-      </c>
-      <c r="B244" s="4">
-        <v>0.6121875</v>
-      </c>
-      <c r="C244" s="4">
-        <v>0.60611408730158733</v>
-      </c>
-      <c r="D244" s="4">
-        <v>0.31976785714285716</v>
-      </c>
-      <c r="E244" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A245" s="4">
-        <v>0.49974305555555554</v>
-      </c>
-      <c r="B245" s="4">
-        <v>0.76705654761904762</v>
-      </c>
-      <c r="C245" s="4">
-        <v>0.76107142857142851</v>
-      </c>
-      <c r="D245" s="4">
-        <v>0.31782440476190471</v>
-      </c>
-      <c r="E245" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A246" s="4">
-        <v>0.48051587301587301</v>
-      </c>
-      <c r="B246" s="4">
-        <v>0.60483134920634918</v>
-      </c>
-      <c r="C246" s="4">
-        <v>0.59701785714285716</v>
-      </c>
-      <c r="D246" s="4">
-        <v>0.45836408730158734</v>
-      </c>
-      <c r="E246" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A247" s="4">
-        <v>0.55206886657101861</v>
-      </c>
-      <c r="B247" s="4">
-        <v>0.75651936872309899</v>
-      </c>
-      <c r="C247" s="4">
-        <v>0.75050645624103296</v>
-      </c>
-      <c r="D247" s="4">
-        <v>0.34889096126255381</v>
-      </c>
-      <c r="E247" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A248" s="4">
-        <v>0.47390387374461984</v>
-      </c>
-      <c r="B248" s="4">
-        <v>0.59248206599713049</v>
-      </c>
-      <c r="C248" s="4">
-        <v>0.58456814921090383</v>
-      </c>
-      <c r="D248" s="4">
-        <v>0.3990286944045911</v>
-      </c>
-      <c r="E248" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A249" s="4">
-        <v>0.29977905308464847</v>
-      </c>
-      <c r="B249" s="4">
-        <v>0.34171592539454804</v>
-      </c>
-      <c r="C249" s="4">
-        <v>0.33489239598278336</v>
-      </c>
-      <c r="D249" s="4">
-        <v>0.47895408895265423</v>
-      </c>
-      <c r="E249" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A250" s="4">
-        <v>0.46682936507936512</v>
-      </c>
-      <c r="B250" s="4">
-        <v>0.59536309523809527</v>
-      </c>
-      <c r="C250" s="4">
-        <v>0.58698412698412705</v>
-      </c>
-      <c r="D250" s="4">
-        <v>0.45946626984126981</v>
-      </c>
-      <c r="E250" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A251" s="4">
-        <v>0.54554365079365086</v>
-      </c>
-      <c r="B251" s="4">
-        <v>0.78260019841269846</v>
-      </c>
-      <c r="C251" s="4">
-        <v>0.77498511904761902</v>
-      </c>
-      <c r="D251" s="4">
-        <v>0.37053670634920638</v>
-      </c>
-      <c r="E251" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252" s="4">
-        <v>0.57095734126984121</v>
-      </c>
-      <c r="B252" s="4">
-        <v>0.78515972222222219</v>
-      </c>
-      <c r="C252" s="4">
-        <v>0.77667559523809537</v>
-      </c>
-      <c r="D252" s="4">
-        <v>0.41120436507936503</v>
-      </c>
-      <c r="E252" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A253" s="4">
-        <v>0.52084523809523819</v>
-      </c>
-      <c r="B253" s="4">
-        <v>0.78960714285714273</v>
-      </c>
-      <c r="C253" s="4">
-        <v>0.78305952380952382</v>
-      </c>
-      <c r="D253" s="4">
-        <v>0.34439186507936509</v>
-      </c>
-      <c r="E253" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A254" s="4">
-        <v>0.51823422459893043</v>
-      </c>
-      <c r="B254" s="4">
-        <v>0.7604620320855614</v>
-      </c>
-      <c r="C254" s="4">
-        <v>0.75340855614973257</v>
-      </c>
-      <c r="D254" s="4">
-        <v>0.38345561497326208</v>
-      </c>
-      <c r="E254" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A255" s="4">
-        <v>0.43769197860962561</v>
-      </c>
-      <c r="B255" s="4">
-        <v>0.5498802139037432</v>
-      </c>
-      <c r="C255" s="4">
-        <v>0.54128021390374326</v>
-      </c>
-      <c r="D255" s="4">
-        <v>0.48783743315508021</v>
-      </c>
-      <c r="E255" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A256" s="4">
-        <v>0.45971329365079366</v>
-      </c>
-      <c r="B256" s="4">
-        <v>0.59036210317460325</v>
-      </c>
-      <c r="C256" s="4">
-        <v>0.58066865079365071</v>
-      </c>
-      <c r="D256" s="4">
-        <v>0.48895238095238092</v>
-      </c>
-      <c r="E256" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A257" s="4">
-        <v>0.34926785714285713</v>
-      </c>
-      <c r="B257" s="4">
-        <v>0.57362599206349207</v>
-      </c>
-      <c r="C257" s="4">
-        <v>0.56378273809523816</v>
-      </c>
-      <c r="D257" s="4">
-        <v>0.3940853174603175</v>
-      </c>
-      <c r="E257" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A258" s="4">
-        <v>0.40538095238095234</v>
-      </c>
-      <c r="B258" s="4">
-        <v>0.59934920634920619</v>
-      </c>
-      <c r="C258" s="4">
-        <v>0.59157539682539684</v>
-      </c>
-      <c r="D258" s="4">
-        <v>0.37265972222222216</v>
-      </c>
-      <c r="E258" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A259" s="4">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="B259" s="4">
-        <v>0.43317647058823527</v>
-      </c>
-      <c r="C259" s="4">
-        <v>0.42546484935437595</v>
-      </c>
-      <c r="D259" s="4">
-        <v>0.48332998565279767</v>
-      </c>
-      <c r="E259" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A260" s="4">
-        <v>0.53300496031746036</v>
-      </c>
-      <c r="B260" s="4">
-        <v>0.73294444444444451</v>
-      </c>
-      <c r="C260" s="4">
-        <v>0.72222718253968266</v>
-      </c>
-      <c r="D260" s="4">
-        <v>0.46992162698412704</v>
-      </c>
-      <c r="E260" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A261" s="4">
-        <v>0.47891964285714278</v>
-      </c>
-      <c r="B261" s="4">
-        <v>0.66625496031746045</v>
-      </c>
-      <c r="C261" s="4">
-        <v>0.65529067460317469</v>
-      </c>
-      <c r="D261" s="4">
-        <v>0.47138194444444442</v>
-      </c>
-      <c r="E261" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A262" s="4">
-        <v>0.49506249999999996</v>
-      </c>
-      <c r="B262" s="4">
-        <v>0.6114087301587301</v>
-      </c>
-      <c r="C262" s="4">
-        <v>0.6029970238095238</v>
-      </c>
-      <c r="D262" s="4">
-        <v>0.4837569444444445</v>
-      </c>
-      <c r="E262" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A263" s="4">
-        <v>0.52110019841269839</v>
-      </c>
-      <c r="B263" s="4">
-        <v>0.64839880952380957</v>
-      </c>
-      <c r="C263" s="4">
-        <v>0.63978373015873025</v>
-      </c>
-      <c r="D263" s="4">
-        <v>0.48143253968253968</v>
-      </c>
-      <c r="E263" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A264" s="4">
-        <v>0.34694652406417115</v>
-      </c>
-      <c r="B264" s="4">
-        <v>0.44654010695187163</v>
-      </c>
-      <c r="C264" s="4">
-        <v>0.43944064171123004</v>
-      </c>
-      <c r="D264" s="4">
-        <v>0.45601283422459893</v>
-      </c>
-      <c r="E264" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A265" s="4">
-        <v>0.43660569105691055</v>
-      </c>
-      <c r="B265" s="4">
-        <v>0.63721544715447154</v>
-      </c>
-      <c r="C265" s="4">
-        <v>0.62429268292682927</v>
-      </c>
-      <c r="D265" s="4">
-        <v>0.47540040650406501</v>
-      </c>
-      <c r="E265" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A266" s="4">
-        <v>0.12679067460317461</v>
-      </c>
-      <c r="B266" s="4">
-        <v>0.17227678571428576</v>
-      </c>
-      <c r="C266" s="4">
-        <v>0.17003174603174606</v>
-      </c>
-      <c r="D266" s="4">
-        <v>0.40343253968253961</v>
-      </c>
-      <c r="E266" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A267" s="4">
-        <v>0.47214973262032084</v>
-      </c>
-      <c r="B267" s="4">
-        <v>0.69562139037433157</v>
-      </c>
-      <c r="C267" s="4">
-        <v>0.68477005347593578</v>
-      </c>
-      <c r="D267" s="4">
-        <v>0.43749197860962569</v>
-      </c>
-      <c r="E267" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A268" s="4">
-        <v>0.32789201877934276</v>
-      </c>
-      <c r="B268" s="4">
-        <v>0.37573239436619715</v>
-      </c>
-      <c r="C268" s="4">
-        <v>0.36956807511737089</v>
-      </c>
-      <c r="D268" s="4">
-        <v>0.49640375586854463</v>
-      </c>
-      <c r="E268" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A269" s="4">
-        <v>0.36321126760563377</v>
-      </c>
-      <c r="B269" s="4">
-        <v>0.4240328638497653</v>
-      </c>
-      <c r="C269" s="4">
-        <v>0.41677934272300471</v>
-      </c>
-      <c r="D269" s="4">
-        <v>0.49791079812206573</v>
-      </c>
-      <c r="E269" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A270" s="4">
-        <v>0.38307572383073496</v>
-      </c>
-      <c r="B270" s="4">
-        <v>0.45915144766146992</v>
-      </c>
-      <c r="C270" s="4">
-        <v>0.45161024498886415</v>
-      </c>
-      <c r="D270" s="4">
-        <v>0.49389086859688197</v>
-      </c>
-      <c r="E270" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A271" s="4">
-        <v>0.21630957683741647</v>
-      </c>
-      <c r="B271" s="4">
-        <v>0.25555456570155904</v>
-      </c>
-      <c r="C271" s="4">
-        <v>0.25220044543429843</v>
-      </c>
-      <c r="D271" s="4">
-        <v>0.43661915367483295</v>
-      </c>
-      <c r="E271" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A272" s="4">
-        <v>0.20564615384615387</v>
-      </c>
-      <c r="B272" s="4">
-        <v>0.47171692307692303</v>
-      </c>
-      <c r="C272" s="4">
-        <v>0.46504307692307695</v>
-      </c>
-      <c r="D272" s="4">
-        <v>0.23307384615384619</v>
-      </c>
-      <c r="E272" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A273" s="4">
-        <v>0.45494835680751172</v>
-      </c>
-      <c r="B273" s="4">
-        <v>0.60142723004694831</v>
-      </c>
-      <c r="C273" s="4">
-        <v>0.59175586854460094</v>
-      </c>
-      <c r="D273" s="4">
-        <v>0.44456338028169012</v>
-      </c>
-      <c r="E273" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A274" s="4">
-        <v>0.54229107981220659</v>
-      </c>
-      <c r="B274" s="4">
-        <v>0.64468075117370882</v>
-      </c>
-      <c r="C274" s="4">
-        <v>0.63584507042253524</v>
-      </c>
-      <c r="D274" s="4">
-        <v>0.49849295774647889</v>
-      </c>
-      <c r="E274" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A275" s="4">
-        <v>0.45182159624413143</v>
-      </c>
-      <c r="B275" s="4">
-        <v>0.55752582159624409</v>
-      </c>
-      <c r="C275" s="4">
-        <v>0.5482723004694835</v>
-      </c>
-      <c r="D275" s="4">
-        <v>0.48211737089201878</v>
-      </c>
-      <c r="E275" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A276" s="4">
-        <v>0.48334272300469483</v>
-      </c>
-      <c r="B276" s="4">
-        <v>0.56808920187793421</v>
-      </c>
-      <c r="C276" s="4">
-        <v>0.55925352112676063</v>
-      </c>
-      <c r="D276" s="4">
-        <v>0.49741784037558689</v>
-      </c>
-      <c r="E276" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A277" s="4">
-        <v>0.35309131403118044</v>
-      </c>
-      <c r="B277" s="4">
-        <v>0.43283518930957687</v>
-      </c>
-      <c r="C277" s="4">
-        <v>0.42579510022271716</v>
-      </c>
-      <c r="D277" s="4">
-        <v>0.46706458797327394</v>
-      </c>
-      <c r="E277" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A278" s="4">
-        <v>0.38569710467706014</v>
-      </c>
-      <c r="B278" s="4">
-        <v>0.50764810690423157</v>
-      </c>
-      <c r="C278" s="4">
-        <v>0.50001336302895327</v>
-      </c>
-      <c r="D278" s="4">
-        <v>0.43248106904231631</v>
-      </c>
-      <c r="E278" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A279" s="4">
-        <v>0.49984615384615383</v>
-      </c>
-      <c r="B279" s="4">
-        <v>0.60869230769230764</v>
-      </c>
-      <c r="C279" s="4">
-        <v>0.59869230769230775</v>
-      </c>
-      <c r="D279" s="4">
-        <v>0.47652307692307688</v>
-      </c>
-      <c r="E279" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A280" s="4">
-        <v>0.44525128205128206</v>
-      </c>
-      <c r="B280" s="4">
-        <v>0.62502564102564095</v>
-      </c>
-      <c r="C280" s="4">
-        <v>0.61619999999999997</v>
-      </c>
-      <c r="D280" s="4">
-        <v>0.39337435897435896</v>
-      </c>
-      <c r="E280" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A281" s="4">
-        <v>0.30483076923076924</v>
-      </c>
-      <c r="B281" s="4">
-        <v>0.48387692307692304</v>
-      </c>
-      <c r="C281" s="4">
-        <v>0.47815897435897442</v>
-      </c>
-      <c r="D281" s="4">
-        <v>0.31620000000000004</v>
-      </c>
-      <c r="E281" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A282" s="4">
-        <v>4.5625835189309571E-2</v>
-      </c>
-      <c r="B282" s="4">
-        <v>3.9427616926503331E-2</v>
-      </c>
-      <c r="C282" s="4">
-        <v>3.8492204899777283E-2</v>
-      </c>
-      <c r="D282" s="4">
-        <v>0.49934298440979952</v>
-      </c>
-      <c r="E282" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A283" s="4">
-        <v>0.2162427616926503</v>
-      </c>
-      <c r="B283" s="4">
-        <v>0.25164365256124721</v>
-      </c>
-      <c r="C283" s="4">
-        <v>0.24744988864142536</v>
-      </c>
-      <c r="D283" s="4">
-        <v>0.4348775055679287</v>
-      </c>
-      <c r="E283" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A284" s="4">
-        <v>0.25680178173719376</v>
-      </c>
-      <c r="B284" s="4">
-        <v>0.30556792873051225</v>
-      </c>
-      <c r="C284" s="4">
-        <v>0.30016035634743871</v>
-      </c>
-      <c r="D284" s="4">
-        <v>0.48915590200445436</v>
-      </c>
-      <c r="E284" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A285" s="4">
-        <v>0.15427839643652563</v>
-      </c>
-      <c r="B285" s="4">
-        <v>0.1640534521158129</v>
-      </c>
-      <c r="C285" s="4">
-        <v>0.16192427616926505</v>
-      </c>
-      <c r="D285" s="4">
-        <v>0.45043875278396439</v>
-      </c>
-      <c r="E285" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A286" s="4">
-        <v>0.39719248826291076</v>
-      </c>
-      <c r="B286" s="4">
-        <v>0.47823943661971824</v>
-      </c>
-      <c r="C286" s="4">
-        <v>0.47123943661971829</v>
-      </c>
-      <c r="D286" s="4">
-        <v>0.48447887323943656</v>
-      </c>
-      <c r="E286" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A287" s="4">
-        <v>0.59786414253897546</v>
-      </c>
-      <c r="B287" s="4">
-        <v>0.75346770601336299</v>
-      </c>
-      <c r="C287" s="4">
-        <v>0.74520267260579065</v>
-      </c>
-      <c r="D287" s="4">
-        <v>0.46016926503340755</v>
-      </c>
-      <c r="E287" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A288" s="4">
-        <v>0.45997772828507799</v>
-      </c>
-      <c r="B288" s="4">
-        <v>0.57284855233853005</v>
-      </c>
-      <c r="C288" s="4">
-        <v>0.56401781737193768</v>
-      </c>
-      <c r="D288" s="4">
-        <v>0.47882850779510022</v>
-      </c>
-      <c r="E288" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A289" s="4">
-        <v>0.60528953229398663</v>
-      </c>
-      <c r="B289" s="4">
-        <v>0.72334298440979961</v>
-      </c>
-      <c r="C289" s="4">
-        <v>0.71389532293986635</v>
-      </c>
-      <c r="D289" s="4">
-        <v>0.49293095768374157</v>
-      </c>
-      <c r="E289" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A290" s="4">
-        <v>0.4748864142538976</v>
-      </c>
-      <c r="B290" s="4">
-        <v>0.71475946547884184</v>
-      </c>
-      <c r="C290" s="4">
-        <v>0.70656124721603564</v>
-      </c>
-      <c r="D290" s="4">
-        <v>0.37906458797327391</v>
-      </c>
-      <c r="E290" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="4">
-        <v>0.54716035634743876</v>
-      </c>
-      <c r="B291" s="4">
-        <v>0.69403563474387531</v>
-      </c>
-      <c r="C291" s="4">
-        <v>0.68491536748329618</v>
-      </c>
-      <c r="D291" s="4">
-        <v>0.45682628062360803</v>
-      </c>
-      <c r="E291" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A292" s="4">
-        <v>0.60908240534521163</v>
-      </c>
-      <c r="B292" s="4">
-        <v>0.75727394209354115</v>
-      </c>
-      <c r="C292" s="4">
-        <v>0.74800890868596881</v>
-      </c>
-      <c r="D292" s="4">
-        <v>0.47136525612472163</v>
-      </c>
-      <c r="E292" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A293" s="4">
-        <v>0.60945434298440981</v>
-      </c>
-      <c r="B293" s="4">
-        <v>0.73381737193763918</v>
-      </c>
-      <c r="C293" s="4">
-        <v>0.72489532293986625</v>
-      </c>
-      <c r="D293" s="4">
-        <v>0.48834298440979945</v>
-      </c>
-      <c r="E293" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A294" s="4">
-        <v>0.15412026726057906</v>
-      </c>
-      <c r="B294" s="4">
-        <v>0.19172828507795101</v>
-      </c>
-      <c r="C294" s="4">
-        <v>0.18826503340757239</v>
-      </c>
-      <c r="D294" s="4">
-        <v>0.45102672605790645</v>
-      </c>
-      <c r="E294" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A295" s="4">
-        <v>0.50801113585746116</v>
-      </c>
-      <c r="B295" s="4">
-        <v>0.63061915367483301</v>
-      </c>
-      <c r="C295" s="4">
-        <v>0.62176391982182622</v>
-      </c>
-      <c r="D295" s="4">
-        <v>0.47165033407572388</v>
-      </c>
-      <c r="E295" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A296" s="4">
-        <v>0.57346993318485529</v>
-      </c>
-      <c r="B296" s="4">
-        <v>0.68397327394209351</v>
-      </c>
-      <c r="C296" s="4">
-        <v>0.67434075723830733</v>
-      </c>
-      <c r="D296" s="4">
-        <v>0.49275946547884181</v>
-      </c>
-      <c r="E296" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A297" s="4">
-        <v>0.35013140311804009</v>
-      </c>
-      <c r="B297" s="4">
-        <v>0.63712249443207125</v>
-      </c>
-      <c r="C297" s="4">
-        <v>0.62869933184855231</v>
-      </c>
-      <c r="D297" s="4">
-        <v>0.30397995545657014</v>
-      </c>
-      <c r="E297" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A298" s="4">
-        <v>0.53877728285077953</v>
-      </c>
-      <c r="B298" s="4">
-        <v>0.64832293986636969</v>
-      </c>
-      <c r="C298" s="4">
-        <v>0.63941425389755002</v>
-      </c>
-      <c r="D298" s="4">
-        <v>0.4821403118040089</v>
-      </c>
-      <c r="E298" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A299" s="4">
-        <v>0.46105567928730512</v>
-      </c>
-      <c r="B299" s="4">
-        <v>0.54461469933184847</v>
-      </c>
-      <c r="C299" s="4">
-        <v>0.53608908685968815</v>
-      </c>
-      <c r="D299" s="4">
-        <v>0.49389086859688197</v>
-      </c>
-      <c r="E299" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A300" s="4">
-        <v>0.30347887323943656</v>
-      </c>
-      <c r="B300" s="4">
-        <v>0.35580751173708924</v>
-      </c>
-      <c r="C300" s="4">
-        <v>0.34938967136150234</v>
-      </c>
-      <c r="D300" s="4">
-        <v>0.49574647887323942</v>
-      </c>
-      <c r="E300" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A301" s="4">
-        <v>0.34218779342723005</v>
-      </c>
-      <c r="B301" s="4">
-        <v>0.60703286384976529</v>
-      </c>
-      <c r="C301" s="4">
-        <v>0.59761502347417839</v>
-      </c>
-      <c r="D301" s="4">
-        <v>0.32144131455399061</v>
-      </c>
-      <c r="E301" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A302" s="4">
-        <v>0.33033630289532295</v>
-      </c>
-      <c r="B302" s="4">
-        <v>0.51855679287305123</v>
-      </c>
-      <c r="C302" s="4">
-        <v>0.51054788418708241</v>
-      </c>
-      <c r="D302" s="4">
-        <v>0.33918708240534517</v>
-      </c>
-      <c r="E302" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A303" s="4">
-        <v>0.54220267260579069</v>
-      </c>
-      <c r="B303" s="4">
-        <v>0.64650111358574613</v>
-      </c>
-      <c r="C303" s="4">
-        <v>0.63761692650334079</v>
-      </c>
-      <c r="D303" s="4">
-        <v>0.49364810690423166</v>
-      </c>
-      <c r="E303" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A304" s="4">
-        <v>0.4241314031180401</v>
-      </c>
-      <c r="B304" s="4">
-        <v>0.52560133630289529</v>
-      </c>
-      <c r="C304" s="4">
-        <v>0.5182048997772829</v>
-      </c>
-      <c r="D304" s="4">
-        <v>0.46961469933184857</v>
-      </c>
-      <c r="E304" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A305" s="4">
-        <v>0.43157015590200448</v>
-      </c>
-      <c r="B305" s="4">
-        <v>0.52899554565701556</v>
-      </c>
-      <c r="C305" s="4">
-        <v>0.52070601336302891</v>
-      </c>
-      <c r="D305" s="4">
-        <v>0.46522494432071271</v>
-      </c>
-      <c r="E305" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A306" s="4">
-        <v>0.43224053452115813</v>
-      </c>
-      <c r="B306" s="4">
-        <v>0.77657906458797321</v>
-      </c>
-      <c r="C306" s="4">
-        <v>0.76861915367483302</v>
-      </c>
-      <c r="D306" s="4">
-        <v>0.30723162583518931</v>
-      </c>
-      <c r="E306" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A307" s="4">
-        <v>0.34157238307349663</v>
-      </c>
-      <c r="B307" s="4">
-        <v>0.67068374164810707</v>
-      </c>
-      <c r="C307" s="4">
-        <v>0.66199554565701557</v>
-      </c>
-      <c r="D307" s="4">
-        <v>0.28659688195991095</v>
-      </c>
-      <c r="E307" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A308" s="4">
-        <v>0.53028507795100222</v>
-      </c>
-      <c r="B308" s="4">
-        <v>0.64055011135857465</v>
-      </c>
-      <c r="C308" s="4">
-        <v>0.63211581291759467</v>
-      </c>
-      <c r="D308" s="4">
-        <v>0.48776169265033414</v>
-      </c>
-      <c r="E308" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A309" s="4">
-        <v>0.55663028953229399</v>
-      </c>
-      <c r="B309" s="4">
-        <v>0.66573719376391982</v>
-      </c>
-      <c r="C309" s="4">
-        <v>0.65614476614699335</v>
-      </c>
-      <c r="D309" s="4">
-        <v>0.49010467706013361</v>
-      </c>
-      <c r="E309" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A310" s="4">
-        <v>0.56410913140311802</v>
-      </c>
-      <c r="B310" s="4">
-        <v>0.68714031180400892</v>
-      </c>
-      <c r="C310" s="4">
-        <v>0.67792873051224944</v>
-      </c>
-      <c r="D310" s="4">
-        <v>0.47260801781737199</v>
-      </c>
-      <c r="E310" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A311" s="4">
-        <v>0.5764476614699332</v>
-      </c>
-      <c r="B311" s="4">
-        <v>0.52142093541202672</v>
-      </c>
-      <c r="C311" s="4">
-        <v>0.51332739420935414</v>
-      </c>
-      <c r="D311" s="4">
-        <v>1.1584543429844096</v>
-      </c>
-      <c r="E311" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A312" s="4">
-        <v>0.59459465478841877</v>
-      </c>
-      <c r="B312" s="4">
-        <v>0.62684632516703787</v>
-      </c>
-      <c r="C312" s="4">
-        <v>0.61712249443207134</v>
-      </c>
-      <c r="D312" s="4">
-        <v>0.75091091314031178</v>
-      </c>
-      <c r="E312" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A313" s="4">
-        <v>0.10723385300668151</v>
-      </c>
-      <c r="B313" s="4">
-        <v>0.10710022271714921</v>
-      </c>
-      <c r="C313" s="4">
-        <v>0.10538975501113587</v>
-      </c>
-      <c r="D313" s="4">
-        <v>0.48277282850779507</v>
-      </c>
-      <c r="E313" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A314" s="4">
-        <v>0.26644543429844098</v>
-      </c>
-      <c r="B314" s="4">
-        <v>0.32626948775055681</v>
-      </c>
-      <c r="C314" s="4">
-        <v>0.32038752783964364</v>
-      </c>
-      <c r="D314" s="4">
-        <v>0.47213363028953231</v>
-      </c>
-      <c r="E314" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A315" s="4">
-        <v>0.49225352112676052</v>
-      </c>
-      <c r="B315" s="4">
-        <v>0.60787793427230052</v>
-      </c>
-      <c r="C315" s="4">
-        <v>0.59904225352112683</v>
-      </c>
-      <c r="D315" s="4">
-        <v>0.46962910798122071</v>
-      </c>
-      <c r="E315" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A316" s="4">
-        <v>0.21945070422535209</v>
-      </c>
-      <c r="B316" s="4">
-        <v>0.25007981220657277</v>
-      </c>
-      <c r="C316" s="4">
-        <v>0.24507981220657279</v>
-      </c>
-      <c r="D316" s="4">
-        <v>0.4945070422535211</v>
-      </c>
-      <c r="E316" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A317" s="4">
-        <v>0.48204677060133627</v>
-      </c>
-      <c r="B317" s="4">
-        <v>0.72600445434298444</v>
-      </c>
-      <c r="C317" s="4">
-        <v>0.71787305122494427</v>
-      </c>
-      <c r="D317" s="4">
-        <v>0.38004677060133635</v>
-      </c>
-      <c r="E317" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A318" s="4">
-        <v>0.47076391982182625</v>
-      </c>
-      <c r="B318" s="4">
-        <v>0.55523385300668149</v>
-      </c>
-      <c r="C318" s="4">
-        <v>0.54636525612472164</v>
-      </c>
-      <c r="D318" s="4">
-        <v>0.48943207126948773</v>
-      </c>
-      <c r="E318" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A319" s="4">
-        <v>0.5598530066815145</v>
-      </c>
-      <c r="B319" s="4">
-        <v>0.67026280623608014</v>
-      </c>
-      <c r="C319" s="4">
-        <v>0.66114253897550102</v>
-      </c>
-      <c r="D319" s="4">
-        <v>0.49242093541202675</v>
-      </c>
-      <c r="E319" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A320" s="4">
-        <v>0.17474832962138084</v>
-      </c>
-      <c r="B320" s="4">
-        <v>0.19226948775055677</v>
-      </c>
-      <c r="C320" s="4">
-        <v>0.18903340757238304</v>
-      </c>
-      <c r="D320" s="4">
-        <v>0.49646547884187087</v>
-      </c>
-      <c r="E320" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A321" s="4">
-        <v>0.55303340757238306</v>
-      </c>
-      <c r="B321" s="4">
-        <v>0.68536971046770601</v>
-      </c>
-      <c r="C321" s="4">
-        <v>0.67601336302895321</v>
-      </c>
-      <c r="D321" s="4">
-        <v>0.468815144766147</v>
-      </c>
-      <c r="E321" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A322" s="4">
-        <v>0.28488641425389755</v>
-      </c>
-      <c r="B322" s="4">
-        <v>0.27847661469933183</v>
-      </c>
-      <c r="C322" s="4">
-        <v>0.27340979955456568</v>
-      </c>
-      <c r="D322" s="4">
-        <v>0.7798552338530067</v>
-      </c>
-      <c r="E322" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A323" s="4">
-        <v>0.45023385300668151</v>
-      </c>
-      <c r="B323" s="4">
-        <v>0.6091603563474387</v>
-      </c>
-      <c r="C323" s="4">
-        <v>0.60029175946547886</v>
-      </c>
-      <c r="D323" s="4">
-        <v>0.43317817371937634</v>
-      </c>
-      <c r="E323" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A324" s="4">
-        <v>0.37197550111358574</v>
-      </c>
-      <c r="B324" s="4">
-        <v>0.46260801781737193</v>
-      </c>
-      <c r="C324" s="4">
-        <v>0.45555011135857459</v>
-      </c>
-      <c r="D324" s="4">
-        <v>0.46412026726057909</v>
-      </c>
-      <c r="E324" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A325" s="4">
-        <v>0.33754237288135591</v>
-      </c>
-      <c r="B325" s="4">
-        <v>0.39521186440677963</v>
-      </c>
-      <c r="C325" s="4">
-        <v>0.38921186440677968</v>
-      </c>
-      <c r="D325" s="4">
-        <v>0.49569491525423731</v>
-      </c>
-      <c r="E325" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A326" s="4">
-        <v>0.37938983050847458</v>
-      </c>
-      <c r="B326" s="4">
-        <v>0.4531864406779661</v>
-      </c>
-      <c r="C326" s="4">
-        <v>0.44628813559322039</v>
-      </c>
-      <c r="D326" s="4">
-        <v>0.49126271186440673</v>
-      </c>
-      <c r="E326" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A327" s="4">
-        <v>0.47180508474576272</v>
-      </c>
-      <c r="B327" s="4">
-        <v>0.61423728813559331</v>
-      </c>
-      <c r="C327" s="4">
-        <v>0.60468644067796617</v>
-      </c>
-      <c r="D327" s="4">
-        <v>0.44935593220338982</v>
-      </c>
-      <c r="E327" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A328" s="4">
-        <v>0.42659322033898311</v>
-      </c>
-      <c r="B328" s="4">
-        <v>0.53473728813559329</v>
-      </c>
-      <c r="C328" s="4">
-        <v>0.52608474576271191</v>
-      </c>
-      <c r="D328" s="4">
-        <v>0.46380508474576271</v>
-      </c>
-      <c r="E328" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A329" s="4">
-        <v>0.48618644067796607</v>
-      </c>
-      <c r="B329" s="4">
-        <v>0.5638220338983051</v>
-      </c>
-      <c r="C329" s="4">
-        <v>0.55492372881355922</v>
-      </c>
-      <c r="D329" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E329" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A330" s="4">
-        <v>0.40446610169491531</v>
-      </c>
-      <c r="B330" s="4">
-        <v>0.47426271186440677</v>
-      </c>
-      <c r="C330" s="4">
-        <v>0.4667118644067797</v>
-      </c>
-      <c r="D330" s="4">
-        <v>0.49650847457627112</v>
-      </c>
-      <c r="E330" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A331" s="4">
-        <v>0.37913559322033896</v>
-      </c>
-      <c r="B331" s="4">
-        <v>0.45082203389830511</v>
-      </c>
-      <c r="C331" s="4">
-        <v>0.44372033898305085</v>
-      </c>
-      <c r="D331" s="4">
-        <v>0.48266949152542371</v>
-      </c>
-      <c r="E331" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A332" s="4">
-        <v>0.50177118644067797</v>
-      </c>
-      <c r="B332" s="4">
-        <v>0.59557627118644074</v>
-      </c>
-      <c r="C332" s="4">
-        <v>0.58702542372881361</v>
-      </c>
-      <c r="D332" s="4">
-        <v>0.48877118644067796</v>
-      </c>
-      <c r="E332" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A333" s="4">
-        <v>0.53961864406779658</v>
-      </c>
-      <c r="B333" s="4">
-        <v>0.65197457627118638</v>
-      </c>
-      <c r="C333" s="4">
-        <v>0.64297457627118648</v>
-      </c>
-      <c r="D333" s="4">
-        <v>0.47676271186440683</v>
-      </c>
-      <c r="E333" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A334" s="4">
-        <v>0.35255932203389834</v>
-      </c>
-      <c r="B334" s="4">
-        <v>0.49647457627118641</v>
-      </c>
-      <c r="C334" s="4">
-        <v>0.48892372881355928</v>
-      </c>
-      <c r="D334" s="4">
-        <v>0.41871186440677965</v>
-      </c>
-      <c r="E334" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A335" s="4">
-        <v>0.36729724770642203</v>
-      </c>
-      <c r="B335" s="4">
-        <v>0.47212110091743126</v>
-      </c>
-      <c r="C335" s="4">
-        <v>0.46399999999999997</v>
-      </c>
-      <c r="D335" s="4">
-        <v>0.44870642201834859</v>
-      </c>
-      <c r="E335" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A336" s="4">
-        <v>0.3264567062818336</v>
-      </c>
-      <c r="B336" s="4">
-        <v>0.54315280135823429</v>
-      </c>
-      <c r="C336" s="4">
-        <v>0.53940916808149408</v>
-      </c>
-      <c r="D336" s="4">
-        <v>0.33465365025466892</v>
-      </c>
-      <c r="E336" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A337" s="4">
-        <v>0.26975382003395587</v>
-      </c>
-      <c r="B337" s="4">
-        <v>0.47590662139219009</v>
-      </c>
-      <c r="C337" s="4">
-        <v>0.47193887945670626</v>
-      </c>
-      <c r="D337" s="4">
-        <v>0.32832088285229205</v>
-      </c>
-      <c r="E337" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A338" s="4">
-        <v>0.28256536502546692</v>
-      </c>
-      <c r="B338" s="4">
-        <v>0.36741935483870974</v>
-      </c>
-      <c r="C338" s="4">
-        <v>0.36365195246179965</v>
-      </c>
-      <c r="D338" s="4">
-        <v>0.44477079796264851</v>
-      </c>
-      <c r="E338" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A339" s="4">
-        <v>0.55397283531409158</v>
-      </c>
-      <c r="B339" s="4">
-        <v>0.66706281833616299</v>
-      </c>
-      <c r="C339" s="4">
-        <v>0.66219524617996606</v>
-      </c>
-      <c r="D339" s="4">
-        <v>0.48128862478777584</v>
-      </c>
-      <c r="E339" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A340" s="4">
-        <v>0.43408633093525179</v>
-      </c>
-      <c r="B340" s="4">
-        <v>0.50985251798561149</v>
-      </c>
-      <c r="C340" s="4">
-        <v>0.50380215827338137</v>
-      </c>
-      <c r="D340" s="4">
-        <v>0.48045683453237414</v>
-      </c>
-      <c r="E340" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A341" s="4">
-        <v>0.41992446043165471</v>
-      </c>
-      <c r="B341" s="4">
-        <v>0.49981294964028777</v>
-      </c>
-      <c r="C341" s="4">
-        <v>0.49581294964028783</v>
-      </c>
-      <c r="D341" s="4">
-        <v>0.45932374100719425</v>
-      </c>
-      <c r="E341" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A342" s="4">
-        <v>0.34048556876061126</v>
-      </c>
-      <c r="B342" s="4">
-        <v>0.42299320882852293</v>
-      </c>
-      <c r="C342" s="4">
-        <v>0.41921731748726659</v>
-      </c>
-      <c r="D342" s="4">
-        <v>0.45249915110356537</v>
-      </c>
-      <c r="E342" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A343" s="4">
-        <v>0.25986690647482014</v>
-      </c>
-      <c r="B343" s="4">
-        <v>0.39017985611510791</v>
-      </c>
-      <c r="C343" s="4">
-        <v>0.38639208633093525</v>
-      </c>
-      <c r="D343" s="4">
-        <v>0.33139568345323739</v>
-      </c>
-      <c r="E343" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A344" s="4">
-        <v>0.36712224108658742</v>
-      </c>
-      <c r="B344" s="4">
-        <v>0.52370797962648552</v>
-      </c>
-      <c r="C344" s="4">
-        <v>0.51974023769100175</v>
-      </c>
-      <c r="D344" s="4">
-        <v>0.37262139219015278</v>
-      </c>
-      <c r="E344" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A345" s="4">
-        <v>0.38674460431654678</v>
-      </c>
-      <c r="B345" s="4">
-        <v>0.54071942446043164</v>
-      </c>
-      <c r="C345" s="4">
-        <v>0.53645683453237414</v>
-      </c>
-      <c r="D345" s="4">
-        <v>0.35164748201438845</v>
-      </c>
-      <c r="E345" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A346" s="4">
-        <v>0.43939558573853993</v>
-      </c>
-      <c r="B346" s="4">
-        <v>0.5948149405772496</v>
-      </c>
-      <c r="C346" s="4">
-        <v>0.59044312393887943</v>
-      </c>
-      <c r="D346" s="4">
-        <v>0.41712563667232599</v>
-      </c>
-      <c r="E346" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A347" s="4">
-        <v>0.46861870503597125</v>
-      </c>
-      <c r="B347" s="4">
-        <v>0.65970143884892085</v>
-      </c>
-      <c r="C347" s="4">
-        <v>0.65517625899280574</v>
-      </c>
-      <c r="D347" s="4">
-        <v>0.36548920863309353</v>
-      </c>
-      <c r="E347" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A348" s="4">
-        <v>0.36966546762589925</v>
-      </c>
-      <c r="B348" s="4">
-        <v>0.51546043165467625</v>
-      </c>
-      <c r="C348" s="4">
-        <v>0.51251079136690647</v>
-      </c>
-      <c r="D348" s="4">
-        <v>0.33347122302158277</v>
-      </c>
-      <c r="E348" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A349" s="4">
-        <v>0.34588848920863313</v>
-      </c>
-      <c r="B349" s="4">
-        <v>0.53073021582733815</v>
-      </c>
-      <c r="C349" s="4">
-        <v>0.52930575539568347</v>
-      </c>
-      <c r="D349" s="4">
-        <v>0.30200359712230218</v>
-      </c>
-      <c r="E349" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A350" s="4">
-        <v>0.53061510791366906</v>
-      </c>
-      <c r="B350" s="4">
-        <v>0.77718705035971225</v>
-      </c>
-      <c r="C350" s="4">
-        <v>0.77182374100719431</v>
-      </c>
-      <c r="D350" s="4">
-        <v>0.35944964028776982</v>
-      </c>
-      <c r="E350" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A351" s="4">
-        <v>0.55042614601018691</v>
-      </c>
-      <c r="B351" s="4">
-        <v>0.78442444821731749</v>
-      </c>
-      <c r="C351" s="4">
-        <v>0.77828522920203724</v>
-      </c>
-      <c r="D351" s="4">
-        <v>0.38383361629881158</v>
-      </c>
-      <c r="E351" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A352" s="4">
-        <v>0.60616808149405765</v>
-      </c>
-      <c r="B352" s="4">
-        <v>0.80549405772495764</v>
-      </c>
-      <c r="C352" s="4">
-        <v>0.80171816638370119</v>
-      </c>
-      <c r="D352" s="4">
-        <v>0.40488115449915107</v>
-      </c>
-      <c r="E352" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A353" s="4">
-        <v>0.57284380305602711</v>
-      </c>
-      <c r="B353" s="4">
-        <v>0.73160611205432946</v>
-      </c>
-      <c r="C353" s="4">
-        <v>0.7269779286926995</v>
-      </c>
-      <c r="D353" s="4">
-        <v>0.43889983022071305</v>
-      </c>
-      <c r="E353" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A354" s="4">
-        <v>0.51072286821705426</v>
-      </c>
-      <c r="B354" s="4">
-        <v>0.77148837209302334</v>
-      </c>
-      <c r="C354" s="4">
-        <v>0.76663953488372094</v>
-      </c>
-      <c r="D354" s="4">
-        <v>0.35423255813953491</v>
-      </c>
-      <c r="E354" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A355" s="4">
-        <v>0.38962790697674421</v>
-      </c>
-      <c r="B355" s="4">
-        <v>0.67696705426356585</v>
-      </c>
-      <c r="C355" s="4">
-        <v>0.67219573643410846</v>
-      </c>
-      <c r="D355" s="4">
-        <v>0.30024031007751939</v>
-      </c>
-      <c r="E355" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A356" s="4">
-        <v>0.40306451612903221</v>
-      </c>
-      <c r="B356" s="4">
-        <v>0.61107979626485553</v>
-      </c>
-      <c r="C356" s="4">
-        <v>0.60543633276740239</v>
-      </c>
-      <c r="D356" s="4">
-        <v>0.37720203735144314</v>
-      </c>
-      <c r="E356" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A357" s="4">
-        <v>0.50739219015280146</v>
-      </c>
-      <c r="B357" s="4">
-        <v>0.65545840407470291</v>
-      </c>
-      <c r="C357" s="4">
-        <v>0.65071477079796269</v>
-      </c>
-      <c r="D357" s="4">
-        <v>0.45373514431239387</v>
-      </c>
-      <c r="E357" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A358" s="4">
-        <v>0.44816468590831915</v>
-      </c>
-      <c r="B358" s="4">
-        <v>0.61969609507640067</v>
-      </c>
-      <c r="C358" s="4">
-        <v>0.61395246179966056</v>
-      </c>
-      <c r="D358" s="4">
-        <v>0.4232631578947369</v>
-      </c>
-      <c r="E358" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A359" s="4">
-        <v>0.40437691001697795</v>
-      </c>
-      <c r="B359" s="4">
-        <v>0.74568590831918513</v>
-      </c>
-      <c r="C359" s="4">
-        <v>0.74061460101867582</v>
-      </c>
-      <c r="D359" s="4">
-        <v>0.28647028862478779</v>
-      </c>
-      <c r="E359" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A360" s="4">
-        <v>0.41301358234295421</v>
-      </c>
-      <c r="B360" s="4">
-        <v>0.76368930390492362</v>
-      </c>
-      <c r="C360" s="4">
-        <v>0.75898981324278436</v>
-      </c>
-      <c r="D360" s="4">
-        <v>0.2794142614601019</v>
-      </c>
-      <c r="E360" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A361" s="4">
-        <v>0.44699490662139213</v>
-      </c>
-      <c r="B361" s="4">
-        <v>0.57012224108658738</v>
-      </c>
-      <c r="C361" s="4">
-        <v>0.56488285229202029</v>
-      </c>
-      <c r="D361" s="4">
-        <v>0.41268930390492364</v>
-      </c>
-      <c r="E361" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A362" s="4">
-        <v>0.46640407470288625</v>
-      </c>
-      <c r="B362" s="4">
-        <v>0.58328692699490658</v>
-      </c>
-      <c r="C362" s="4">
-        <v>0.57854329371816626</v>
-      </c>
-      <c r="D362" s="4">
-        <v>0.41966893039049236</v>
-      </c>
-      <c r="E362" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A363" s="4">
-        <v>0.48402716468590828</v>
-      </c>
-      <c r="B363" s="4">
-        <v>0.60235823429541591</v>
-      </c>
-      <c r="C363" s="4">
-        <v>0.59733446519524613</v>
-      </c>
-      <c r="D363" s="4">
-        <v>0.4473378607809847</v>
-      </c>
-      <c r="E363" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A364" s="4">
-        <v>0.46406281833616292</v>
-      </c>
-      <c r="B364" s="4">
-        <v>0.5686638370118845</v>
-      </c>
-      <c r="C364" s="4">
-        <v>0.56367232597623096</v>
-      </c>
-      <c r="D364" s="4">
-        <v>0.45685229202037353</v>
-      </c>
-      <c r="E364" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A365" s="4">
-        <v>0.48089134125636673</v>
-      </c>
-      <c r="B365" s="4">
-        <v>0.61791850594227493</v>
-      </c>
-      <c r="C365" s="4">
-        <v>0.61227504244482167</v>
-      </c>
-      <c r="D365" s="4">
-        <v>0.42534465195246185</v>
-      </c>
-      <c r="E365" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A366" s="4">
-        <v>0.51154159592529713</v>
-      </c>
-      <c r="B366" s="4">
-        <v>0.67223599320882854</v>
-      </c>
-      <c r="C366" s="4">
-        <v>0.66764855687606117</v>
-      </c>
-      <c r="D366" s="4">
-        <v>0.40631578947368419</v>
-      </c>
-      <c r="E366" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A367" s="4">
-        <v>0.48012224108658746</v>
-      </c>
-      <c r="B367" s="4">
-        <v>0.58653820033955861</v>
-      </c>
-      <c r="C367" s="4">
-        <v>0.58241426146010178</v>
-      </c>
-      <c r="D367" s="4">
-        <v>0.45262308998302203</v>
-      </c>
-      <c r="E367" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A368" s="4">
-        <v>0.4705935251798562</v>
-      </c>
-      <c r="B368" s="4">
-        <v>0.56452158273381303</v>
-      </c>
-      <c r="C368" s="4">
-        <v>0.55842086330935259</v>
-      </c>
-      <c r="D368" s="4">
-        <v>0.49215107913669071</v>
-      </c>
-      <c r="E368" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A369" s="4">
-        <v>0.42326258992805749</v>
-      </c>
-      <c r="B369" s="4">
-        <v>0.55871223021582739</v>
-      </c>
-      <c r="C369" s="4">
-        <v>0.55423741007194249</v>
-      </c>
-      <c r="D369" s="4">
-        <v>0.45382733812949638</v>
-      </c>
-      <c r="E369" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A370" s="4">
-        <v>0.28078607809847195</v>
-      </c>
-      <c r="B370" s="4">
-        <v>0.32446349745331071</v>
-      </c>
-      <c r="C370" s="4">
-        <v>0.32086757215619699</v>
-      </c>
-      <c r="D370" s="4">
-        <v>0.48784719864176568</v>
-      </c>
-      <c r="E370" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A371" s="4">
-        <v>0.42379117147707973</v>
-      </c>
-      <c r="B371" s="4">
-        <v>0.51071986417657045</v>
-      </c>
-      <c r="C371" s="4">
-        <v>0.50684380305602716</v>
-      </c>
-      <c r="D371" s="4">
-        <v>0.47423259762308995</v>
-      </c>
-      <c r="E371" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A372" s="4">
-        <v>0.27966553480475387</v>
-      </c>
-      <c r="B372" s="4">
-        <v>0.32427504244482169</v>
-      </c>
-      <c r="C372" s="4">
-        <v>0.32090322580645164</v>
-      </c>
-      <c r="D372" s="4">
-        <v>0.48799151103565369</v>
-      </c>
-      <c r="E372" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A373" s="4">
-        <v>0.40847368421052632</v>
-      </c>
-      <c r="B373" s="4">
-        <v>0.49244821731748728</v>
-      </c>
-      <c r="C373" s="4">
-        <v>0.48901188455008493</v>
-      </c>
-      <c r="D373" s="4">
-        <v>0.45931918505942271</v>
-      </c>
-      <c r="E373" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A374" s="4">
-        <v>7.9714770797962645E-2</v>
-      </c>
-      <c r="B374" s="4">
-        <v>0.11028353140916809</v>
-      </c>
-      <c r="C374" s="4">
-        <v>0.10829202037351443</v>
-      </c>
-      <c r="D374" s="4">
-        <v>0.33486757215619695</v>
-      </c>
-      <c r="E374" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A375" s="4">
-        <v>0.39879496402877701</v>
-      </c>
-      <c r="B375" s="4">
-        <v>0.47477697841726618</v>
-      </c>
-      <c r="C375" s="4">
-        <v>0.47098920863309351</v>
-      </c>
-      <c r="D375" s="4">
-        <v>0.4683417266187051</v>
-      </c>
-      <c r="E375" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A376" s="4">
-        <v>0.41669779286926995</v>
-      </c>
-      <c r="B376" s="4">
-        <v>0.48546179966044134</v>
-      </c>
-      <c r="C376" s="4">
-        <v>0.4814057724957555</v>
-      </c>
-      <c r="D376" s="4">
-        <v>0.49473344651952467</v>
-      </c>
-      <c r="E376" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A377" s="4">
-        <v>0.36836672325976227</v>
-      </c>
-      <c r="B377" s="4">
-        <v>0.48768760611205442</v>
-      </c>
-      <c r="C377" s="4">
-        <v>0.48258743633276735</v>
-      </c>
-      <c r="D377" s="4">
-        <v>0.45608828522920197</v>
-      </c>
-      <c r="E377" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A378" s="4">
-        <v>0.43565467625899273</v>
-      </c>
-      <c r="B378" s="4">
-        <v>0.54894244604316544</v>
-      </c>
-      <c r="C378" s="4">
-        <v>0.54546762589928055</v>
-      </c>
-      <c r="D378" s="4">
-        <v>0.45370503597122303</v>
-      </c>
-      <c r="E378" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A379" s="4">
-        <v>0.36014748201438851</v>
-      </c>
-      <c r="B379" s="4">
-        <v>0.42890647482014388</v>
-      </c>
-      <c r="C379" s="4">
-        <v>0.42390647482014387</v>
-      </c>
-      <c r="D379" s="4">
-        <v>0.47518345323741007</v>
-      </c>
-      <c r="E379" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A380" s="4">
-        <v>0.52964388489208625</v>
-      </c>
-      <c r="B380" s="4">
-        <v>0.76963669064748208</v>
-      </c>
-      <c r="C380" s="4">
-        <v>0.76563669064748208</v>
-      </c>
-      <c r="D380" s="4">
-        <v>0.37051079136690646</v>
-      </c>
-      <c r="E380" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A381" s="4">
-        <v>0.5372985611510791</v>
-      </c>
-      <c r="B381" s="4">
-        <v>0.70533453237410071</v>
-      </c>
-      <c r="C381" s="4">
-        <v>0.7015467625899281</v>
-      </c>
-      <c r="D381" s="4">
-        <v>0.41269424460431653</v>
-      </c>
-      <c r="E381" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A382" s="4">
-        <v>0.59328353140916812</v>
-      </c>
-      <c r="B382" s="4">
-        <v>0.70158234295415955</v>
-      </c>
-      <c r="C382" s="4">
-        <v>0.69578268251273345</v>
-      </c>
-      <c r="D382" s="4">
-        <v>0.49615959252971137</v>
-      </c>
-      <c r="E382" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A383" s="4">
-        <v>0.48011544991511035</v>
-      </c>
-      <c r="B383" s="4">
-        <v>0.63777758913412563</v>
-      </c>
-      <c r="C383" s="4">
-        <v>0.63222580645161297</v>
-      </c>
-      <c r="D383" s="4">
-        <v>0.45245331069609507</v>
-      </c>
-      <c r="E383" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A384" s="4">
-        <v>0.44432597623089987</v>
-      </c>
-      <c r="B384" s="4">
-        <v>0.55878098471986415</v>
-      </c>
-      <c r="C384" s="4">
-        <v>0.55303735144312405</v>
-      </c>
-      <c r="D384" s="4">
-        <v>0.48091001697792862</v>
-      </c>
-      <c r="E384" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A385" s="4">
-        <v>0.56920503597122296</v>
-      </c>
-      <c r="B385" s="4">
-        <v>0.66724460431654686</v>
-      </c>
-      <c r="C385" s="4">
-        <v>0.66166906474820153</v>
-      </c>
-      <c r="D385" s="4">
-        <v>0.49878776978417272</v>
-      </c>
-      <c r="E385" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A386" s="4">
-        <v>0.50174702886247879</v>
-      </c>
-      <c r="B386" s="4">
-        <v>0.62712224108658743</v>
-      </c>
-      <c r="C386" s="4">
-        <v>0.62324617996604414</v>
-      </c>
-      <c r="D386" s="4">
-        <v>0.47590831918505944</v>
-      </c>
-      <c r="E386" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A387" s="4">
-        <v>0.61936672325976239</v>
-      </c>
-      <c r="B387" s="4">
-        <v>0.77558064516129033</v>
-      </c>
-      <c r="C387" s="4">
-        <v>0.77082852292020365</v>
-      </c>
-      <c r="D387" s="4">
-        <v>0.44754668930390495</v>
-      </c>
-      <c r="E387" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A388" s="4">
-        <v>0.59929541595925295</v>
-      </c>
-      <c r="B388" s="4">
-        <v>0.76173514431239397</v>
-      </c>
-      <c r="C388" s="4">
-        <v>0.75761120543293714</v>
-      </c>
-      <c r="D388" s="4">
-        <v>0.43369609507640061</v>
-      </c>
-      <c r="E388" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A389" s="4">
-        <v>0.58487096774193548</v>
-      </c>
-      <c r="B389" s="4">
-        <v>0.72791171477079808</v>
-      </c>
-      <c r="C389" s="4">
-        <v>0.72276400679117148</v>
-      </c>
-      <c r="D389" s="4">
-        <v>0.44313073005093384</v>
-      </c>
-      <c r="E389" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A390" s="4">
-        <v>0.4869712230215828</v>
-      </c>
-      <c r="B390" s="4">
-        <v>0.66815107913669081</v>
-      </c>
-      <c r="C390" s="4">
-        <v>0.66162589928057558</v>
-      </c>
-      <c r="D390" s="4">
-        <v>0.44727338129496402</v>
-      </c>
-      <c r="E390" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A391" s="4">
-        <v>0.51031409168081499</v>
-      </c>
-      <c r="B391" s="4">
-        <v>0.68227843803056032</v>
-      </c>
-      <c r="C391" s="4">
-        <v>0.67590662139219015</v>
-      </c>
-      <c r="D391" s="4">
-        <v>0.45669949066213916</v>
-      </c>
-      <c r="E391" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A392" s="4">
-        <v>0.47452158273381295</v>
-      </c>
-      <c r="B392" s="4">
-        <v>0.67536690647482012</v>
-      </c>
-      <c r="C392" s="4">
-        <v>0.66984172661870511</v>
-      </c>
-      <c r="D392" s="4">
-        <v>0.43953237410071944</v>
-      </c>
-      <c r="E392" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A393" s="4">
-        <v>0.36176910016977926</v>
-      </c>
-      <c r="B393" s="4">
-        <v>0.50227843803056027</v>
-      </c>
-      <c r="C393" s="4">
-        <v>0.49725466893039055</v>
-      </c>
-      <c r="D393" s="4">
-        <v>0.42976910016977932</v>
-      </c>
-      <c r="E393" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A394" s="4">
-        <v>0.55749405772495753</v>
-      </c>
-      <c r="B394" s="4">
-        <v>0.76243972835314089</v>
-      </c>
-      <c r="C394" s="4">
-        <v>0.75706791171477084</v>
-      </c>
-      <c r="D394" s="4">
-        <v>0.4053955857385399</v>
-      </c>
-      <c r="E394" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A395" s="4">
-        <v>0.54851952461799658</v>
-      </c>
-      <c r="B395" s="4">
-        <v>0.72402716468590822</v>
-      </c>
-      <c r="C395" s="4">
-        <v>0.7186315789473684</v>
-      </c>
-      <c r="D395" s="4">
-        <v>0.42263157894736841</v>
-      </c>
-      <c r="E395" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A396" s="4">
-        <v>0.51306791171477084</v>
-      </c>
-      <c r="B396" s="4">
-        <v>0.6997028862478778</v>
-      </c>
-      <c r="C396" s="4">
-        <v>0.69515110356536503</v>
-      </c>
-      <c r="D396" s="4">
-        <v>0.40227334465195247</v>
-      </c>
-      <c r="E396" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A397" s="4">
-        <v>0.61538709677419345</v>
-      </c>
-      <c r="B397" s="4">
-        <v>0.78427674023769089</v>
-      </c>
-      <c r="C397" s="4">
-        <v>0.77928522920203736</v>
-      </c>
-      <c r="D397" s="4">
-        <v>0.44107300509337866</v>
-      </c>
-      <c r="E397" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A398" s="4">
-        <v>0.60307470288624787</v>
-      </c>
-      <c r="B398" s="4">
-        <v>0.77734634974533112</v>
-      </c>
-      <c r="C398" s="4">
-        <v>0.77285059422750413</v>
-      </c>
-      <c r="D398" s="4">
-        <v>0.43300339558573853</v>
-      </c>
-      <c r="E398" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A399" s="4">
-        <v>0.53058064516129033</v>
-      </c>
-      <c r="B399" s="4">
-        <v>0.64919524617996605</v>
-      </c>
-      <c r="C399" s="4">
-        <v>0.64369949066213927</v>
-      </c>
-      <c r="D399" s="4">
-        <v>0.49104414261460094</v>
-      </c>
-      <c r="E399" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A400" s="4">
-        <v>0.43697453310696094</v>
-      </c>
-      <c r="B400" s="4">
-        <v>0.51351952461799666</v>
-      </c>
-      <c r="C400" s="4">
-        <v>0.50855178268251278</v>
-      </c>
-      <c r="D400" s="4">
-        <v>0.49812733446519525</v>
-      </c>
-      <c r="E400" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A401" s="4">
-        <v>0.46520543293718164</v>
-      </c>
-      <c r="B401" s="4">
-        <v>0.54857215619694399</v>
-      </c>
-      <c r="C401" s="4">
-        <v>0.54367232597623094</v>
-      </c>
-      <c r="D401" s="4">
-        <v>0.4953633276740238</v>
-      </c>
-      <c r="E401" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A402" s="4">
-        <v>0.41817826825127336</v>
-      </c>
-      <c r="B402" s="4">
-        <v>0.49648047538200341</v>
-      </c>
-      <c r="C402" s="4">
-        <v>0.49186078098471991</v>
-      </c>
-      <c r="D402" s="4">
-        <v>0.48575382003395584</v>
-      </c>
-      <c r="E402" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A403" s="4">
-        <v>0.52873514431239388</v>
-      </c>
-      <c r="B403" s="4">
-        <v>0.63797962648556872</v>
-      </c>
-      <c r="C403" s="4">
-        <v>0.63270797962648551</v>
-      </c>
-      <c r="D403" s="4">
-        <v>0.4785059422750424</v>
-      </c>
-      <c r="E403" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A404" s="4">
-        <v>0.54782682512733449</v>
-      </c>
-      <c r="B404" s="4">
-        <v>0.67244482173174858</v>
-      </c>
-      <c r="C404" s="4">
-        <v>0.6669490662139218</v>
-      </c>
-      <c r="D404" s="4">
-        <v>0.49289473684210527</v>
-      </c>
-      <c r="E404" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A405" s="4">
-        <v>0.55434532374100709</v>
-      </c>
-      <c r="B405" s="4">
-        <v>0.72227697841726624</v>
-      </c>
-      <c r="C405" s="4">
-        <v>0.71670143884892079</v>
-      </c>
-      <c r="D405" s="4">
-        <v>0.46974100719424461</v>
-      </c>
-      <c r="E405" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A406" s="4">
-        <v>0.45789928057553952</v>
-      </c>
-      <c r="B406" s="4">
-        <v>0.72104676258992817</v>
-      </c>
-      <c r="C406" s="4">
-        <v>0.71373381294964033</v>
-      </c>
-      <c r="D406" s="4">
-        <v>0.39793525179856115</v>
-      </c>
-      <c r="E406" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A407" s="4">
-        <v>0.50547707979626499</v>
-      </c>
-      <c r="B407" s="4">
-        <v>0.68921222410865879</v>
-      </c>
-      <c r="C407" s="4">
-        <v>0.68253650254668929</v>
-      </c>
-      <c r="D407" s="4">
-        <v>0.44763667232597626</v>
-      </c>
-      <c r="E407" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A408" s="4">
-        <v>0.60756366723259758</v>
-      </c>
-      <c r="B408" s="4">
-        <v>0.79421222410865877</v>
-      </c>
-      <c r="C408" s="4">
-        <v>0.78931239388794572</v>
-      </c>
-      <c r="D408" s="4">
-        <v>0.46022750424448222</v>
-      </c>
-      <c r="E408" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A409" s="4">
-        <v>0.48322750424448224</v>
-      </c>
-      <c r="B409" s="4">
-        <v>0.60487606112054337</v>
-      </c>
-      <c r="C409" s="4">
-        <v>0.59920033955857377</v>
-      </c>
-      <c r="D409" s="4">
-        <v>0.47304753820033957</v>
-      </c>
-      <c r="E409" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A410" s="4">
-        <v>0.58888624787775889</v>
-      </c>
-      <c r="B410" s="4">
-        <v>0.73248217317487274</v>
-      </c>
-      <c r="C410" s="4">
-        <v>0.72758234295415958</v>
-      </c>
-      <c r="D410" s="4">
-        <v>0.46884719864176572</v>
-      </c>
-      <c r="E410" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A411" s="4">
-        <v>0.57779626485568747</v>
-      </c>
-      <c r="B411" s="4">
-        <v>0.70609507640067914</v>
-      </c>
-      <c r="C411" s="4">
-        <v>0.70119524617996609</v>
-      </c>
-      <c r="D411" s="4">
-        <v>0.48114601018675718</v>
-      </c>
-      <c r="E411" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A412" s="4">
-        <v>0.59248047538200344</v>
-      </c>
-      <c r="B412" s="4">
-        <v>0.73156876061120535</v>
-      </c>
-      <c r="C412" s="4">
-        <v>0.72682512733446514</v>
-      </c>
-      <c r="D412" s="4">
-        <v>0.46888115449915108</v>
-      </c>
-      <c r="E412" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A413" s="4">
-        <v>0.53172495755517835</v>
-      </c>
-      <c r="B413" s="4">
-        <v>0.64561290322580633</v>
-      </c>
-      <c r="C413" s="4">
-        <v>0.64006112054329367</v>
-      </c>
-      <c r="D413" s="4">
-        <v>0.48406960950764011</v>
-      </c>
-      <c r="E413" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A414" s="4">
-        <v>0.46933446519524619</v>
-      </c>
-      <c r="B414" s="4">
-        <v>0.58362478777589122</v>
-      </c>
-      <c r="C414" s="4">
-        <v>0.57840916808149401</v>
-      </c>
-      <c r="D414" s="4">
-        <v>0.48257215619694399</v>
-      </c>
-      <c r="E414" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A415" s="4">
-        <v>0.34576400679117153</v>
-      </c>
-      <c r="B415" s="4">
-        <v>0.44279626485568763</v>
-      </c>
-      <c r="C415" s="4">
-        <v>0.43852461799660442</v>
-      </c>
-      <c r="D415" s="4">
-        <v>0.46676570458404076</v>
-      </c>
-      <c r="E415" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A416" s="4">
-        <v>0.62519424460431661</v>
-      </c>
-      <c r="B416" s="4">
-        <v>0.76655755395683456</v>
-      </c>
-      <c r="C416" s="4">
-        <v>0.76050719424460445</v>
-      </c>
-      <c r="D416" s="4">
-        <v>0.49516187050359711</v>
-      </c>
-      <c r="E416" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A417" s="4">
-        <v>0.61758992805755397</v>
-      </c>
-      <c r="B417" s="4">
-        <v>0.75417625899280571</v>
-      </c>
-      <c r="C417" s="4">
-        <v>0.7491258992805756</v>
-      </c>
-      <c r="D417" s="4">
-        <v>0.49594964028776978</v>
-      </c>
-      <c r="E417" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A418" s="4">
-        <v>0.58282374100719425</v>
-      </c>
-      <c r="B418" s="4">
-        <v>0.73592086330935258</v>
-      </c>
-      <c r="C418" s="4">
-        <v>0.72987050359712224</v>
-      </c>
-      <c r="D418" s="4">
-        <v>0.48056834532374104</v>
-      </c>
-      <c r="E418" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A419" s="4">
-        <v>0.38464855687606109</v>
-      </c>
-      <c r="B419" s="4">
-        <v>0.7280526315789474</v>
-      </c>
-      <c r="C419" s="4">
-        <v>0.72148047538200344</v>
-      </c>
-      <c r="D419" s="4">
-        <v>0.32880475382003393</v>
-      </c>
-      <c r="E419" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A420" s="4">
-        <v>0.35527843803056031</v>
-      </c>
-      <c r="B420" s="4">
-        <v>0.48040067911714773</v>
-      </c>
-      <c r="C420" s="4">
-        <v>0.47636842105263161</v>
-      </c>
-      <c r="D420" s="4">
-        <v>0.44895415959252977</v>
-      </c>
-      <c r="E420" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A421" s="4">
-        <v>0.3535959252971137</v>
-      </c>
-      <c r="B421" s="4">
-        <v>0.44183531409168086</v>
-      </c>
-      <c r="C421" s="4">
-        <v>0.43740747028862476</v>
-      </c>
-      <c r="D421" s="4">
-        <v>0.48255517826825134</v>
-      </c>
-      <c r="E421" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A422" s="4">
-        <v>0.39925297113752123</v>
-      </c>
-      <c r="B422" s="4">
-        <v>0.51001867572156201</v>
-      </c>
-      <c r="C422" s="4">
-        <v>0.50601867572156201</v>
-      </c>
-      <c r="D422" s="4">
-        <v>0.46565874363327669</v>
-      </c>
-      <c r="E422" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A423" s="4">
-        <v>0.24338200339558574</v>
-      </c>
-      <c r="B423" s="4">
-        <v>0.32939728353140918</v>
-      </c>
-      <c r="C423" s="4">
-        <v>0.32624108658743634</v>
-      </c>
-      <c r="D423" s="4">
-        <v>0.43622071307300514</v>
-      </c>
-      <c r="E423" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A424" s="4">
-        <v>0.31758743633276743</v>
-      </c>
-      <c r="B424" s="4">
-        <v>0.45310356536502555</v>
-      </c>
-      <c r="C424" s="4">
-        <v>0.44883191850594234</v>
-      </c>
-      <c r="D424" s="4">
-        <v>0.42726146010186761</v>
-      </c>
-      <c r="E424" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A425" s="4">
-        <v>0.58707913669064749</v>
-      </c>
-      <c r="B425" s="4">
-        <v>0.7045755395683454</v>
-      </c>
-      <c r="C425" s="4">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="D425" s="4">
-        <v>0.496636690647482</v>
-      </c>
-      <c r="E425" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A426" s="4">
-        <v>0.6031079136690648</v>
-      </c>
-      <c r="B426" s="4">
-        <v>0.71984532374100718</v>
-      </c>
-      <c r="C426" s="4">
-        <v>0.71400719424460435</v>
-      </c>
-      <c r="D426" s="4">
-        <v>0.49496043165467624</v>
-      </c>
-      <c r="E426" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A427" s="4">
-        <v>0.60383093525179854</v>
-      </c>
-      <c r="B427" s="4">
-        <v>0.73251798561151071</v>
-      </c>
-      <c r="C427" s="4">
-        <v>0.72746762589928049</v>
-      </c>
-      <c r="D427" s="4">
-        <v>0.48340647482014387</v>
-      </c>
-      <c r="E427" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A428" s="4">
-        <v>0.47794186046511627</v>
-      </c>
-      <c r="B428" s="4">
-        <v>0.76312790697674415</v>
-      </c>
-      <c r="C428" s="4">
-        <v>0.75752519379844963</v>
-      </c>
-      <c r="D428" s="4">
-        <v>0.39174224806201552</v>
-      </c>
-      <c r="E428" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A429" s="4">
-        <v>0.47725196850393703</v>
-      </c>
-      <c r="B429" s="4">
-        <v>0.55989763779527557</v>
-      </c>
-      <c r="C429" s="4">
-        <v>0.55240944881889764</v>
-      </c>
-      <c r="D429" s="4">
-        <v>0.4970236220472441</v>
-      </c>
-      <c r="E429" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A430" s="4">
-        <v>0.5055984251968505</v>
-      </c>
-      <c r="B430" s="4">
-        <v>0.61632283464566928</v>
-      </c>
-      <c r="C430" s="4">
-        <v>0.60778740157480315</v>
-      </c>
-      <c r="D430" s="4">
-        <v>0.4847007874015748</v>
-      </c>
-      <c r="E430" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A431" s="4">
-        <v>0.42909448818897633</v>
-      </c>
-      <c r="B431" s="4">
-        <v>0.57701574803149613</v>
-      </c>
-      <c r="C431" s="4">
-        <v>0.56950393700787405</v>
-      </c>
-      <c r="D431" s="4">
-        <v>0.43691338582677164</v>
-      </c>
-      <c r="E431" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A432" s="4">
-        <v>0.60062700964630222</v>
-      </c>
-      <c r="B432" s="4">
-        <v>0.71012861736334409</v>
-      </c>
-      <c r="C432" s="4">
-        <v>0.70465916398713824</v>
-      </c>
-      <c r="D432" s="4">
-        <v>0.50076527331189713</v>
-      </c>
-      <c r="E432" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A433" s="4">
-        <v>0.55675241157556266</v>
-      </c>
-      <c r="B433" s="4">
-        <v>0.67079421221864954</v>
-      </c>
-      <c r="C433" s="4">
-        <v>0.66673311897106113</v>
-      </c>
-      <c r="D433" s="4">
-        <v>0.49387781350482318</v>
-      </c>
-      <c r="E433" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A434" s="4">
-        <v>0.46142122186495182</v>
-      </c>
-      <c r="B434" s="4">
-        <v>0.60900643086816719</v>
-      </c>
-      <c r="C434" s="4">
-        <v>0.60430225080385847</v>
-      </c>
-      <c r="D434" s="4">
-        <v>0.46363022508038582</v>
-      </c>
-      <c r="E434" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A435" s="4">
-        <v>0.49702893890675237</v>
-      </c>
-      <c r="B435" s="4">
-        <v>0.60509324758842431</v>
-      </c>
-      <c r="C435" s="4">
-        <v>0.60009324758842442</v>
-      </c>
-      <c r="D435" s="4">
-        <v>0.4873762057877814</v>
-      </c>
-      <c r="E435" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A436" s="4">
-        <v>0.50218327974276533</v>
-      </c>
-      <c r="B436" s="4">
-        <v>0.61524437299035373</v>
-      </c>
-      <c r="C436" s="4">
-        <v>0.61047909967845659</v>
-      </c>
-      <c r="D436" s="4">
-        <v>0.49560128617363347</v>
-      </c>
-      <c r="E436" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A437" s="4">
-        <v>0.58957556270096467</v>
-      </c>
-      <c r="B437" s="4">
-        <v>0.71094533762057888</v>
-      </c>
-      <c r="C437" s="4">
-        <v>0.70594533762057876</v>
-      </c>
-      <c r="D437" s="4">
-        <v>0.48967202572347268</v>
-      </c>
-      <c r="E437" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A438" s="4">
-        <v>0.50045659163987133</v>
-      </c>
-      <c r="B438" s="4">
-        <v>0.70191318327974284</v>
-      </c>
-      <c r="C438" s="4">
-        <v>0.69520900321543411</v>
-      </c>
-      <c r="D438" s="4">
-        <v>0.435112540192926</v>
-      </c>
-      <c r="E438" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A439" s="4">
-        <v>0.33999356913183282</v>
-      </c>
-      <c r="B439" s="4">
-        <v>0.50065594855305473</v>
-      </c>
-      <c r="C439" s="4">
-        <v>0.49418649517684887</v>
-      </c>
-      <c r="D439" s="4">
-        <v>0.39538906752411579</v>
-      </c>
-      <c r="E439" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A440" s="4">
-        <v>0.51795819935691323</v>
-      </c>
-      <c r="B440" s="4">
-        <v>0.62065273311897107</v>
-      </c>
-      <c r="C440" s="4">
-        <v>0.61541800643086819</v>
-      </c>
-      <c r="D440" s="4">
-        <v>0.49587781350482318</v>
-      </c>
-      <c r="E440" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A441" s="4">
-        <v>0.77956270096463032</v>
-      </c>
-      <c r="B441" s="4">
-        <v>0.59183601286173626</v>
-      </c>
-      <c r="C441" s="4">
-        <v>0.58536655948553051</v>
-      </c>
-      <c r="D441" s="4">
-        <v>0.49759163987138266</v>
-      </c>
-      <c r="E441" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A442" s="4">
-        <v>0.82586495176848895</v>
-      </c>
-      <c r="B442" s="4">
-        <v>0.63565594855305463</v>
-      </c>
-      <c r="C442" s="4">
-        <v>0.63018649517684888</v>
-      </c>
-      <c r="D442" s="4">
-        <v>0.49535691318327968</v>
-      </c>
-      <c r="E442" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A443" s="4">
-        <v>0.70090032154340831</v>
-      </c>
-      <c r="B443" s="4">
-        <v>0.59332797427652728</v>
-      </c>
-      <c r="C443" s="4">
-        <v>0.58785852090032154</v>
-      </c>
-      <c r="D443" s="4">
-        <v>0.49770418006430867</v>
-      </c>
-      <c r="E443" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A444" s="4">
-        <v>0.59170739549839235</v>
-      </c>
-      <c r="B444" s="4">
-        <v>0.61455627009646308</v>
-      </c>
-      <c r="C444" s="4">
-        <v>0.60932154340836009</v>
-      </c>
-      <c r="D444" s="4">
-        <v>0.50070418006430861</v>
-      </c>
-      <c r="E444" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A445" s="4">
-        <v>0.56440514469453362</v>
-      </c>
-      <c r="B445" s="4">
-        <v>0.68353376205787786</v>
-      </c>
-      <c r="C445" s="4">
-        <v>0.67729903536977498</v>
-      </c>
-      <c r="D445" s="4">
-        <v>0.49423472668810287</v>
-      </c>
-      <c r="E445" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A446" s="4">
-        <v>0.46907395498392285</v>
-      </c>
-      <c r="B446" s="4">
-        <v>0.53081993569131825</v>
-      </c>
-      <c r="C446" s="4">
-        <v>0.52758520900321548</v>
-      </c>
-      <c r="D446" s="4">
-        <v>0.35467524115755628</v>
-      </c>
-      <c r="E446" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A447" s="4">
-        <v>0.48937620578778135</v>
-      </c>
-      <c r="B447" s="4">
-        <v>0.79607717041800641</v>
-      </c>
-      <c r="C447" s="4">
-        <v>0.78995498392282959</v>
-      </c>
-      <c r="D447" s="4">
-        <v>0.19920257234726688</v>
-      </c>
-      <c r="E447" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A448" s="4">
-        <v>0.50218327974276533</v>
-      </c>
-      <c r="B448" s="4">
-        <v>0.70436334405144696</v>
-      </c>
-      <c r="C448" s="4">
-        <v>0.69765916398713834</v>
-      </c>
-      <c r="D448" s="4">
-        <v>0.35173311897106108</v>
-      </c>
-      <c r="E448" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A449" s="4">
-        <v>0.59569774919614149</v>
-      </c>
-      <c r="B449" s="4">
-        <v>0.3389260450160772</v>
-      </c>
-      <c r="C449" s="4">
-        <v>0.33663022508038587</v>
-      </c>
-      <c r="D449" s="4">
-        <v>0.38992604501607714</v>
-      </c>
-      <c r="E449" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A450" s="4">
-        <v>0.47417363344051444</v>
-      </c>
-      <c r="B450" s="4">
-        <v>0.29943729903536975</v>
-      </c>
-      <c r="C450" s="4">
-        <v>0.29643729903536981</v>
-      </c>
-      <c r="D450" s="4">
-        <v>0.44819292604501609</v>
-      </c>
-      <c r="E450" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A451" s="4">
-        <v>0.33999356913183282</v>
-      </c>
-      <c r="B451" s="4">
-        <v>0.46326045016077172</v>
-      </c>
-      <c r="C451" s="4">
-        <v>0.45926045016077177</v>
-      </c>
-      <c r="D451" s="4">
-        <v>0.44239549839228298</v>
-      </c>
-      <c r="E451" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A452" s="4">
-        <v>0.52101929260450164</v>
-      </c>
-      <c r="B452" s="4">
-        <v>0.37947909967845661</v>
-      </c>
-      <c r="C452" s="4">
-        <v>0.37518327974276527</v>
-      </c>
-      <c r="D452" s="4">
-        <v>0.49893890675241165</v>
-      </c>
-      <c r="E452" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A453" s="4">
-        <v>0.77956270096463032</v>
-      </c>
-      <c r="B453" s="4">
-        <v>0.68565916398713822</v>
-      </c>
-      <c r="C453" s="4">
-        <v>0.68018971061093247</v>
-      </c>
-      <c r="D453" s="4">
-        <v>0.48812218649517691</v>
-      </c>
-      <c r="E453" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A454" s="4">
-        <v>0.82586495176848895</v>
-      </c>
-      <c r="B454" s="4">
-        <v>0.36444372990353702</v>
-      </c>
-      <c r="C454" s="4">
-        <v>0.36073954983922829</v>
-      </c>
-      <c r="D454" s="4">
-        <v>0.43244051446945331</v>
-      </c>
-      <c r="E454" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A455" s="4">
-        <v>0.70090032154340831</v>
-      </c>
-      <c r="B455" s="4">
-        <v>0.43722508038585212</v>
-      </c>
-      <c r="C455" s="4">
-        <v>0.43269453376205791</v>
-      </c>
-      <c r="D455" s="4">
-        <v>0.47933762057877816</v>
-      </c>
-      <c r="E455" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A456" s="4">
-        <v>0.59170739549839235</v>
-      </c>
-      <c r="B456" s="4">
-        <v>0.54464951768488745</v>
-      </c>
-      <c r="C456" s="4">
-        <v>0.53964951768488756</v>
-      </c>
-      <c r="D456" s="4">
-        <v>0.44161414790996789</v>
-      </c>
-      <c r="E456" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A457" s="4">
-        <v>0.56440514469453362</v>
-      </c>
-      <c r="B457" s="4">
-        <v>0.37570418006430867</v>
-      </c>
-      <c r="C457" s="4">
-        <v>0.37146945337620579</v>
-      </c>
-      <c r="D457" s="4">
-        <v>0.417491961414791</v>
-      </c>
-      <c r="E457" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A458" s="4">
-        <v>0.46907395498392285</v>
-      </c>
-      <c r="B458" s="4">
-        <v>0.55084565916398709</v>
-      </c>
-      <c r="C458" s="4">
-        <v>0.54554983922829581</v>
-      </c>
-      <c r="D458" s="4">
-        <v>0.44222508038585212</v>
-      </c>
-      <c r="E458" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A459" s="4">
-        <v>0.48937620578778135</v>
-      </c>
-      <c r="B459" s="4">
-        <v>0.55768488745980704</v>
-      </c>
-      <c r="C459" s="4">
-        <v>0.55315434083601289</v>
-      </c>
-      <c r="D459" s="4">
-        <v>0.47692926045016071</v>
-      </c>
-      <c r="E459" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A460" s="4">
-        <v>0.50218327974276533</v>
-      </c>
-      <c r="B460" s="4">
-        <v>0.68006752411575555</v>
-      </c>
-      <c r="C460" s="4">
-        <v>0.67500643086816714</v>
-      </c>
-      <c r="D460" s="4">
-        <v>0.37538585209003217</v>
-      </c>
-      <c r="E460" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A461" s="4">
-        <v>0.59569774919614149</v>
-      </c>
-      <c r="B461" s="4">
-        <v>0.38829581993569134</v>
-      </c>
-      <c r="C461" s="4">
-        <v>0.38576527331189708</v>
-      </c>
-      <c r="D461" s="4">
-        <v>0.47774598070739555</v>
-      </c>
-      <c r="E461" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A462" s="4">
-        <v>0.47417363344051444</v>
-      </c>
-      <c r="B462" s="4">
-        <v>0.63281028938906747</v>
-      </c>
-      <c r="C462" s="4">
-        <v>0.62781028938906747</v>
-      </c>
-      <c r="D462" s="4">
-        <v>0.3794147909967846</v>
-      </c>
-      <c r="E462" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A463" s="4">
-        <v>0.33999356913183282</v>
-      </c>
-      <c r="B463" s="4">
-        <v>0.3607459807073955</v>
-      </c>
-      <c r="C463" s="4">
-        <v>0.35721543408360129</v>
-      </c>
-      <c r="D463" s="4">
-        <v>0.40747909967845658</v>
-      </c>
-      <c r="E463" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A464" s="4">
-        <v>0.52101929260450164</v>
-      </c>
-      <c r="B464" s="4">
-        <v>0.49413183279742767</v>
-      </c>
-      <c r="C464" s="4">
-        <v>0.48960128617363341</v>
-      </c>
-      <c r="D464" s="4">
-        <v>0.22522186495176849</v>
-      </c>
-      <c r="E464" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A465" s="4">
-        <v>0.52101929260450164</v>
-      </c>
-      <c r="B465" s="4">
-        <v>0.18683279742765271</v>
-      </c>
-      <c r="C465" s="4">
-        <v>0.18553697749196141</v>
-      </c>
-      <c r="D465" s="4">
-        <v>0.48065273311897105</v>
-      </c>
-      <c r="E465" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Item bank from DigiArvi 2025 - Final.xlsx
+++ b/Item bank from DigiArvi 2025 - Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdaadh\Desktop\Item bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA0F6B4-5860-4AAF-B91E-DEEB1E692E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA71056-17FA-4F1F-9CDB-8F2FECA4845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6548F41-5644-4F5F-8D9E-38C4DDB10409}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="993">
   <si>
     <t>label</t>
   </si>
@@ -3472,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D8EB27-DBD6-457E-8C41-DC95B8D34093}">
   <dimension ref="A1:BL467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="AG13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR35" sqref="AR35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6304,8 +6304,8 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="4">
-        <v>3.4</v>
+      <c r="AP25" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
@@ -6414,8 +6414,8 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="4">
-        <v>3.4</v>
+      <c r="AP26" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
@@ -6524,8 +6524,8 @@
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="4">
-        <v>3.4</v>
+      <c r="AP27" s="4" t="s">
+        <v>949</v>
       </c>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>

--- a/Item bank from DigiArvi 2025 - Final.xlsx
+++ b/Item bank from DigiArvi 2025 - Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdaadh\Desktop\Item bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA71056-17FA-4F1F-9CDB-8F2FECA4845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E169A76-55A5-4CE2-BA6C-364E66A08E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6548F41-5644-4F5F-8D9E-38C4DDB10409}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="992">
   <si>
     <t>label</t>
   </si>
@@ -2913,9 +2913,6 @@
   </si>
   <si>
     <t>order</t>
-  </si>
-  <si>
-    <t>1 , 2</t>
   </si>
   <si>
     <t>S1: Thinking Skills (including Computational Thinking)</t>
@@ -3472,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D8EB27-DBD6-457E-8C41-DC95B8D34093}">
   <dimension ref="A1:BL467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR35" sqref="AR35"/>
+    <sheetView tabSelected="1" topLeftCell="AG137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP162" sqref="AP162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3692,7 +3689,7 @@
     </row>
     <row r="3" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -3701,7 +3698,7 @@
         <v>923</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>1</v>
@@ -3713,55 +3710,55 @@
         <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>971</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>4</v>
@@ -3830,58 +3827,58 @@
         <v>946</v>
       </c>
       <c r="AU3" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="AV3" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BH3" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>990</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.35">
@@ -12250,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>77</v>
       </c>
@@ -12486,7 +12483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>79</v>
       </c>
@@ -14092,7 +14089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>93</v>
       </c>
@@ -14540,7 +14537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>97</v>
       </c>
@@ -15684,7 +15681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:64" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>107</v>
       </c>
@@ -21255,7 +21252,7 @@
       <c r="AN158" s="3"/>
       <c r="AO158" s="3"/>
       <c r="AP158" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AQ158" s="4">
         <v>1</v>
@@ -21365,7 +21362,7 @@
       <c r="AN159" s="3"/>
       <c r="AO159" s="3"/>
       <c r="AP159" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="AQ159" s="4">
         <v>1</v>
